--- a/data/hotels_by_city/Denver/Denver_shard_91.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_91.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="480">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33691-d223984-Reviews-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Fairfield-Inn-Suites-Denver-NorthWestminster.h475866.Hotel-Information?chkin=4%2F22%2F2018&amp;chkout=4%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=7480f861-04ed-4bcd-bab4-e14ae45e84dbHWRQ1523491228615&amp;regionId=178254&amp;vip=false&amp;c=b2dbf8e6-ff96-4d98-8b60-386b67c04c30&amp;mctc=9&amp;exp_dp=89&amp;exp_ts=1523491236662&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1322 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r590658023-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>33691</t>
+  </si>
+  <si>
+    <t>223984</t>
+  </si>
+  <si>
+    <t>590658023</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Just stayed here from friday until check out this morning. The hotel is being upgraded however everything was amazing.  The staff was incredibly friendly and accommodating, the rooms were spacious, clean and quiet.  Very conveniently located for my needs. Breakfast had many options and was all tasty. Will absolutely stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Diana T, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Just stayed here from friday until check out this morning. The hotel is being upgraded however everything was amazing.  The staff was incredibly friendly and accommodating, the rooms were spacious, clean and quiet.  Very conveniently located for my needs. Breakfast had many options and was all tasty. Will absolutely stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r584360063-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>584360063</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>The rooms were very clean and the staff was super friendly and accommodating. It was especially nice to relax in the hot tub after a long day at work. Their free breakfast was a huge plus because it was very convenient to grab a bite and head out the door. I will definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Diana T, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2018</t>
+  </si>
+  <si>
+    <t>The rooms were very clean and the staff was super friendly and accommodating. It was especially nice to relax in the hot tub after a long day at work. Their free breakfast was a huge plus because it was very convenient to grab a bite and head out the door. I will definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r583178122-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>583178122</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Great location, renovating for the future!</t>
+  </si>
+  <si>
+    <t>My family of 4 stayed here 1 night over Memorial Day weekend. Very easy to find hotel and around plenty of restaurants and shopping. They are currently renovating, so there was some drilling noise on the 1st floor.  No big deal to us. We had a nice quiet location on the 3rd floor. Rooms are modern, beds very comfy, and lots of Direct TV channels to watch. Pool and hot tub were nice. Everything was clean. My extra pillows, requested thru the Marriott app, were hand delivered to our room by Will, who also assisted me at the front desk. He was very friendly and attentive. Breakfast was typical of Marriott hotels, hot and cold items. Good coffee. Only bad thing was the "weird" sausage patties. My husband took one bite and didn't want another. They looked fine but were mushy and strange inside. Overall, great stay. Definitely would stay againMoreShow less</t>
+  </si>
+  <si>
+    <t>Casey H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded May 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2018</t>
+  </si>
+  <si>
+    <t>My family of 4 stayed here 1 night over Memorial Day weekend. Very easy to find hotel and around plenty of restaurants and shopping. They are currently renovating, so there was some drilling noise on the 1st floor.  No big deal to us. We had a nice quiet location on the 3rd floor. Rooms are modern, beds very comfy, and lots of Direct TV channels to watch. Pool and hot tub were nice. Everything was clean. My extra pillows, requested thru the Marriott app, were hand delivered to our room by Will, who also assisted me at the front desk. He was very friendly and attentive. Breakfast was typical of Marriott hotels, hot and cold items. Good coffee. Only bad thing was the "weird" sausage patties. My husband took one bite and didn't want another. They looked fine but were mushy and strange inside. Overall, great stay. Definitely would stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r573103775-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>573103775</t>
+  </si>
+  <si>
+    <t>04/13/2018</t>
+  </si>
+  <si>
+    <t>Under Construction - Avoid it for now 4/13/2018</t>
+  </si>
+  <si>
+    <t>The lobby and breakfast room are under construction and it really is a pain. For all practical purposes, there is no lobby. The only thing there is the desk to check in or out. I wanted to sit down while I waited for my business partner, but too bad for me because there are no seats, couches, chairs, nada. The breakfast room might have been an alternative but it's currently a fraction of the size it should be while most of the space is under construction and the few chairs there were occupied. The breakfast selection was also quite limited, probably due to the lack of space to set much out. Finally, the "hot" selections; eggs, bacon, sausage were actually cold.On the positive side, the room was fantastic - clean and comfortable. The staff was friendly (and a bit apologetic). The wi-fi was strong and uninterrupted. Had we known it was under construction we would have stayed somewhere else. Once the construction is completed I'm sure things will be fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Diana T, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded April 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2018</t>
+  </si>
+  <si>
+    <t>The lobby and breakfast room are under construction and it really is a pain. For all practical purposes, there is no lobby. The only thing there is the desk to check in or out. I wanted to sit down while I waited for my business partner, but too bad for me because there are no seats, couches, chairs, nada. The breakfast room might have been an alternative but it's currently a fraction of the size it should be while most of the space is under construction and the few chairs there were occupied. The breakfast selection was also quite limited, probably due to the lack of space to set much out. Finally, the "hot" selections; eggs, bacon, sausage were actually cold.On the positive side, the room was fantastic - clean and comfortable. The staff was friendly (and a bit apologetic). The wi-fi was strong and uninterrupted. Had we known it was under construction we would have stayed somewhere else. Once the construction is completed I'm sure things will be fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r570937767-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>570937767</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great getaway </t>
+  </si>
+  <si>
+    <t>Checked in and stayed while I was in Denver. The entire staff was so helpful. Very clean place and they go out of their way to make sure your happy. Always warm cookies and even while doing renovations they still strive to make it the best place to stay. The managers were attentive and caring and have done an amazing job keeping the guests happy while under renovation. Can’t say thanks enough!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r564419624-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>564419624</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Under construction but still good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under construction but still good. Nice and clean and quiet . Breakfast free was a surprise and pleasant. Showed up late night . Young man at counter was very nice.slept well wifi strong hot water was great. Check out easy and was thanked </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r554027586-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>554027586</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>One of the Best</t>
+  </si>
+  <si>
+    <t>Stayed here last August for business. One of the friendliest staff, cleanest and well run hotels in Denver. No joke. Close to food and shopping. Very pleasant. Made me feel right at home and helped with transportation.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r539861385-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>539861385</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not up to Marriott standards </t>
+  </si>
+  <si>
+    <t>Rooms were small and clean. Breakfast average, ran out of items daily. Internet "temporarily out of order" for the entire 4 days we were there. Management is running this property on a shoestring. Not up to Marriott standards. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>DIANA T, Front Office Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded November 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2017</t>
+  </si>
+  <si>
+    <t>Rooms were small and clean. Breakfast average, ran out of items daily. Internet "temporarily out of order" for the entire 4 days we were there. Management is running this property on a shoestring. Not up to Marriott standards. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r539425999-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>539425999</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Great location and very clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is very clean and the staff was very pleasant.  Breakfast was typical hotel fare but it did vary from day to day which was nice.  We would definitely stay there again.  The pool area was well-maintained </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r510969793-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>510969793</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel Easy Quick Stay!</t>
+  </si>
+  <si>
+    <t>Check in was easy and room was ready when I arrived.  Room was nice and clean.  Breakfast the next morning was great well stocked and convenient.  Kids loved the make your own waffles!!!  Thanks for a pleasant stay!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Check in was easy and room was ready when I arrived.  Room was nice and clean.  Breakfast the next morning was great well stocked and convenient.  Kids loved the make your own waffles!!!  Thanks for a pleasant stay!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r504822910-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>504822910</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service---Highly Recommend!!!</t>
+  </si>
+  <si>
+    <t>I had called a number of hotels in the Westminster, Colorado area and was unable to find a 'last minute' hotel.  Then my luck changed!!!  I had the pleasure of speaking with Frank at the Fairfield Inn &amp; Suites and he made the "MAGIC" happen!!!  He graciously upgraded our room free of charge to an Executive Queen Suite because we had 4 adults and 2 children in our party.  Frank introduced me to Will and informed me that both of them would be there to help make our visit wonderful.  When there was an issue with the indoor pool, Will and Frank immediately took care of the situation.  Our room was very spacious, clean and nicely decorated.  The morning breakfast was very good!  Our grandchildren LOVED the selection.  Thank you......Frank and Will for making our stay so GREAT your customer service was AMAZING!!!!  You are both wonderful ambassadors for the Marriott Corporation.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>I had called a number of hotels in the Westminster, Colorado area and was unable to find a 'last minute' hotel.  Then my luck changed!!!  I had the pleasure of speaking with Frank at the Fairfield Inn &amp; Suites and he made the "MAGIC" happen!!!  He graciously upgraded our room free of charge to an Executive Queen Suite because we had 4 adults and 2 children in our party.  Frank introduced me to Will and informed me that both of them would be there to help make our visit wonderful.  When there was an issue with the indoor pool, Will and Frank immediately took care of the situation.  Our room was very spacious, clean and nicely decorated.  The morning breakfast was very good!  Our grandchildren LOVED the selection.  Thank you......Frank and Will for making our stay so GREAT your customer service was AMAZING!!!!  You are both wonderful ambassadors for the Marriott Corporation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r495863472-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>495863472</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Customer Service </t>
+  </si>
+  <si>
+    <t>The general manager Diana Thate was so accommodating!! We got in late our first night and when we got to our room we noticed the air conditioner was not working and was so loud! I notified the front desk and the gentleman said he would make sure someone took care of it the next morning. Ms. Thate came to our room the next morning and after seeing that our air conditioner could not be an easy fix she upgraded us to a bigger room for the remainder of our stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>The general manager Diana Thate was so accommodating!! We got in late our first night and when we got to our room we noticed the air conditioner was not working and was so loud! I notified the front desk and the gentleman said he would make sure someone took care of it the next morning. Ms. Thate came to our room the next morning and after seeing that our air conditioner could not be an easy fix she upgraded us to a bigger room for the remainder of our stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r489892882-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>489892882</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>We just needed a place to stay for the night near Boulder, and this fit the bill. Despite the holiday weekend (Memorial Day), this hotel did not raise the prices like many of the other hotels in the area - which is why we booked this place in particular. The room itself was spacious and clean, with a comfortable bed. We did not utilize the pool, but it had a nice indoor pool and some outdoor patio seating.  Breakfast was included and had a nice variety of choices. It was about 30 minutes from downtown Boulder by car - but it was also near a Park and Ride , so there was also good access to public transit.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We just needed a place to stay for the night near Boulder, and this fit the bill. Despite the holiday weekend (Memorial Day), this hotel did not raise the prices like many of the other hotels in the area - which is why we booked this place in particular. The room itself was spacious and clean, with a comfortable bed. We did not utilize the pool, but it had a nice indoor pool and some outdoor patio seating.  Breakfast was included and had a nice variety of choices. It was about 30 minutes from downtown Boulder by car - but it was also near a Park and Ride , so there was also good access to public transit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r485775280-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>485775280</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>Moving details</t>
+  </si>
+  <si>
+    <t>Moved daughter from Westminister to seattle. Very accommodating and efficient hotelHighly recommend. The food is warm for breakfast. Would like to have a restaurant on premise. Pillows were down and clean</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r474131955-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>474131955</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Overnight b4 flight our from ski trip</t>
+  </si>
+  <si>
+    <t>Used for a night after a ski trip before flying out the next morning.Great location the front desk made a perfect recommendation for a BBQ joint - GQue. Clean room friendly staff.  All good!One disappointment was the homeless person that came in and started on the b fast and it was a bit before the host recognized and asked them to leave.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r412076375-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>412076375</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>The staff was nice. We called and came in a day earlier than planned. Derrick was nice in helping us with our changes in the reservation and additional nights.  We had asked for a quiet room away from elevator and was accommodated.  Had a king bed that was comfortable and slept great each night. Breakfast was good.  We stayed 4 nights and there was always eggs and sausage available as well as cereals, muffins, toast, yogurt, etc.  I might suggest changing out the sausage for bacon maybe every other day.  My only complaint was we added the fourth night on the third day.  When we got to our room late on the fourth night, our keys would not work.  Had to go to the front desk to have re-keyed. Would have been nice to have done this when we added the extra day.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>The staff was nice. We called and came in a day earlier than planned. Derrick was nice in helping us with our changes in the reservation and additional nights.  We had asked for a quiet room away from elevator and was accommodated.  Had a king bed that was comfortable and slept great each night. Breakfast was good.  We stayed 4 nights and there was always eggs and sausage available as well as cereals, muffins, toast, yogurt, etc.  I might suggest changing out the sausage for bacon maybe every other day.  My only complaint was we added the fourth night on the third day.  When we got to our room late on the fourth night, our keys would not work.  Had to go to the front desk to have re-keyed. Would have been nice to have done this when we added the extra day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r410807656-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>410807656</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Friendly Staff and Close to Highway</t>
+  </si>
+  <si>
+    <t>I recently spent 2 nights at the hotel. It was clean and the staff was very nice. I especially appreciated the staff at the front desk. They were very friendly and courteous, especially Frankie. I had spoken to her on the phone prior to my stay and  she helped me make changes to my reservation. The breakfast is good and the dining area was very clean and well attended by Barbara. If I ever visit Denver again, I would definitely stay there again. The room was clean and the beds were comfortable. Good for the price. If you are planning on going to the Rocky Mountain National Park, it is just off I-25 North and not far from the exit to the Park.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2016</t>
+  </si>
+  <si>
+    <t>I recently spent 2 nights at the hotel. It was clean and the staff was very nice. I especially appreciated the staff at the front desk. They were very friendly and courteous, especially Frankie. I had spoken to her on the phone prior to my stay and  she helped me make changes to my reservation. The breakfast is good and the dining area was very clean and well attended by Barbara. If I ever visit Denver again, I would definitely stay there again. The room was clean and the beds were comfortable. Good for the price. If you are planning on going to the Rocky Mountain National Park, it is just off I-25 North and not far from the exit to the Park.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r405385549-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>405385549</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Amazing Place</t>
+  </si>
+  <si>
+    <t>This is a great hotel. The General Manager, Casey, is so awesome. She's the nicest person you'll ever meet. This hotel would be nothing without her. The property is very nice and the room exceeded all expectations. I'll definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r405046507-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>405046507</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>Glad it is getting renovated!</t>
+  </si>
+  <si>
+    <t>I stayed there this week and the staff is really and truly very nice!That is the best I can say.  The room was very very musty smelling.  Not updated, not a suite!  I was told that they will be updating later in the year.  The breakfast area was nice and a nice selection every morning.  Having noisy neighbors is never a plus! The location is great....close to RTD bus center.  There are a lot of restaurants around and even though close to I-25 you cannot hear the traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2016</t>
+  </si>
+  <si>
+    <t>I stayed there this week and the staff is really and truly very nice!That is the best I can say.  The room was very very musty smelling.  Not updated, not a suite!  I was told that they will be updating later in the year.  The breakfast area was nice and a nice selection every morning.  Having noisy neighbors is never a plus! The location is great....close to RTD bus center.  There are a lot of restaurants around and even though close to I-25 you cannot hear the traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r404554280-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>404554280</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Convenient and Clean</t>
+  </si>
+  <si>
+    <t>Average Fairfield stay. Staff was nice and the hotel was clean. Like most hotels the walls are pretty thin but during our stay the person next door was yelling and woke us up at 4am. We had to knock on the wall a few times to get him to quite down. Breakfast was fine, had some hot items like eggs and sausage. Good for a one night stay and conveniently located by the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>Average Fairfield stay. Staff was nice and the hotel was clean. Like most hotels the walls are pretty thin but during our stay the person next door was yelling and woke us up at 4am. We had to knock on the wall a few times to get him to quite down. Breakfast was fine, had some hot items like eggs and sausage. Good for a one night stay and conveniently located by the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r400588246-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>400588246</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had a wonderful evening here. Hotel was clean and comfortable. Loved the pool as well. Hotel staff was very friendly and helpful as well. We really enjoyed our stay. I would recommend this hotel amd would definitely stay again. I normally stay at the Holiday Inns but this could turn me into a repeat customer for sure. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r366999635-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>366999635</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Good Experience!!</t>
+  </si>
+  <si>
+    <t>We stayed for a one night get away with our two boys.  We wanted something in the North Metro area that had a pool for the kids.  The price was good (we paid with points) and the location was great.  Tons of retail and restaurant options nearby.  The rooms and public space we all clean and kept up.  The pool and whirlpool were nice and we saw a maintenance man checking the chemical and water levels.  It was nice to know they stay on top of that.  The front desk staff quickly brought fresh pool towels when we alerted them that they were out.The room was clean and nicely appointed.  Bedding was fresh with several pillow options.  There were extra outlets which is great for charging lots of devices etc.  The free breakfast was decent with eggs and bacon etc in addition to the usual continental fare.With good rooms and great service we will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>We stayed for a one night get away with our two boys.  We wanted something in the North Metro area that had a pool for the kids.  The price was good (we paid with points) and the location was great.  Tons of retail and restaurant options nearby.  The rooms and public space we all clean and kept up.  The pool and whirlpool were nice and we saw a maintenance man checking the chemical and water levels.  It was nice to know they stay on top of that.  The front desk staff quickly brought fresh pool towels when we alerted them that they were out.The room was clean and nicely appointed.  Bedding was fresh with several pillow options.  There were extra outlets which is great for charging lots of devices etc.  The free breakfast was decent with eggs and bacon etc in addition to the usual continental fare.With good rooms and great service we will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r313567860-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>313567860</t>
+  </si>
+  <si>
+    <t>09/25/2015</t>
+  </si>
+  <si>
+    <t>No maintenance on the weeked</t>
+  </si>
+  <si>
+    <t>This is a typical Fairfield Inn.  The room and property was clean and neat, but wow, was the traffic loud.  We also had TV trouble starting Saturday night.  We reported it Saturday night and Sunday morning.  Sunday morning the woman who works the kitchen came up to try and fix the problem.  It was OK for a few minutes and we left the room, only to have the problem recur Sunday evening.  The TV was replaced Monday AM and all was OK after that.  A special thanks to Tina, who at least made an effort to help.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded September 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2015</t>
+  </si>
+  <si>
+    <t>This is a typical Fairfield Inn.  The room and property was clean and neat, but wow, was the traffic loud.  We also had TV trouble starting Saturday night.  We reported it Saturday night and Sunday morning.  Sunday morning the woman who works the kitchen came up to try and fix the problem.  It was OK for a few minutes and we left the room, only to have the problem recur Sunday evening.  The TV was replaced Monday AM and all was OK after that.  A special thanks to Tina, who at least made an effort to help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r309294385-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>309294385</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>Solid business hotel for the price</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for one night in September 2015 while in the area for a meeting; this is a typical Fairfield Inn; the room was large, clean, fairly modern decor.  Excellent selection of cable television channels.  Complimentary breakfast was included, but wasn't very good (scrambled eggs had water in them and were lukewarm).  The location is excellent with a number of solid dining options nearby.  As far as whether I would return - a definite Maybe...MoreShow less</t>
+  </si>
+  <si>
+    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2015</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for one night in September 2015 while in the area for a meeting; this is a typical Fairfield Inn; the room was large, clean, fairly modern decor.  Excellent selection of cable television channels.  Complimentary breakfast was included, but wasn't very good (scrambled eggs had water in them and were lukewarm).  The location is excellent with a number of solid dining options nearby.  As far as whether I would return - a definite Maybe...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r278365911-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>278365911</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>This particular Marriott property is nearby to almost everything you'd need. The staff was great and the room was very clean. No issues, except a missing TV remote the the front desk quickly replaced.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r277661410-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>277661410</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Nice Clean Room</t>
+  </si>
+  <si>
+    <t>If you are familiar with Fairfield Inn &amp; Suites, you will know what to expect. The room was clean, though I found the bathroom a little on the small side. The hotel is a block off of the interstate and a busy side street, which isn't that odd. But what was odd was the fact that I could hear it, as well as the TV from the room next to me. One of the things that I found annoying was the AC unit. I am a person who needs a little bit of noise at night, but the AC unit wouldn't allow you to turn the fan on constantly. I also found that it didn't regulate the room very well. Still, it was a clean room, decent size, with a few minor glitches (noise and AC).MoreShow less</t>
+  </si>
+  <si>
+    <t>If you are familiar with Fairfield Inn &amp; Suites, you will know what to expect. The room was clean, though I found the bathroom a little on the small side. The hotel is a block off of the interstate and a busy side street, which isn't that odd. But what was odd was the fact that I could hear it, as well as the TV from the room next to me. One of the things that I found annoying was the AC unit. I am a person who needs a little bit of noise at night, but the AC unit wouldn't allow you to turn the fan on constantly. I also found that it didn't regulate the room very well. Still, it was a clean room, decent size, with a few minor glitches (noise and AC).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r275428044-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>275428044</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Three week stay - peaceful and efficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here as a couple for three weeks while our home was being updated.   I travel a lot for work (our entire stay was covered with points) and found this hotel to be just fine for the number of stars and location. We were upgraded to a king suite room (end room) and requested a first floor room. We were next to the guest laundry, which was convenient and quiet. You can walk to a number of restaurants and a few convenient stores, if you need to. Our room was clean when we asked and breakfast was the usual fare. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r273349242-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>273349242</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>Better places to stay</t>
+  </si>
+  <si>
+    <t>Hotel is OK, Staff were OK, Room was Ok ... The room was old and grubby not the cleanest room... In my opinion there are better hotels in the area. I am actually a Marriot Member most dissapointing was none of my requests of room type and location were met.Pick another hotel if your planning a trip!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded May 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2015</t>
+  </si>
+  <si>
+    <t>Hotel is OK, Staff were OK, Room was Ok ... The room was old and grubby not the cleanest room... In my opinion there are better hotels in the area. I am actually a Marriot Member most dissapointing was none of my requests of room type and location were met.Pick another hotel if your planning a trip!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r250862549-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>250862549</t>
+  </si>
+  <si>
+    <t>01/24/2015</t>
+  </si>
+  <si>
+    <t>Clean but Swimming Pool Smell Overpowering</t>
+  </si>
+  <si>
+    <t>We stayed here on a recent business trip and upon entering we were hit with the strong smell of chlorinated pool water. The room was clean and the staff friendly but this hotel seemed cramped. Seems a bit high priced in comparison to other similar hotels in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded January 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here on a recent business trip and upon entering we were hit with the strong smell of chlorinated pool water. The room was clean and the staff friendly but this hotel seemed cramped. Seems a bit high priced in comparison to other similar hotels in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r250789738-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>250789738</t>
+  </si>
+  <si>
+    <t>Don't let the BED BUGS bite!!!</t>
+  </si>
+  <si>
+    <t>Stayed at this location last week. Second morning of stay noticed bed bugs in bed. Alerted management who stated this has been an ongoing problem. Had bite marks on feet and legs. Notified Tri County Health Department about incident. Contacted management again, took 2 days to get a call back. Result of this trip: out $120 for doctors visit, about $750 in contaminated clothes and a weekend of a nervous wife worried if I brought them home. Never again will I stay here there are better and cleaner options in the area. Management assumed no responsibility and was more concerned with excuses than being helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Stayed at this location last week. Second morning of stay noticed bed bugs in bed. Alerted management who stated this has been an ongoing problem. Had bite marks on feet and legs. Notified Tri County Health Department about incident. Contacted management again, took 2 days to get a call back. Result of this trip: out $120 for doctors visit, about $750 in contaminated clothes and a weekend of a nervous wife worried if I brought them home. Never again will I stay here there are better and cleaner options in the area. Management assumed no responsibility and was more concerned with excuses than being helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r217517822-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>217517822</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Great, Friendly Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful staff. Breakfast was great. Check-in was fast and easy, which was appreciated after a 9 hour drive with an arrival time at midnight. The only negative was that one of the beds in our room was uncomfortable. Great location and very quiet. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r216279849-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>216279849</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>The check in was easy and fast. The only complaint that I would have. There was no refrigerator in the room. Overall was really nice stay. The bed was comfortable the room was extremely clean. The breakfast in the morning was good. Everything was neat orderly and clean. The staff was respectful courteous enjoyable.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r215633542-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>215633542</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed here for several nights &amp; we were very happy with it. Check in was a breeze. The hotel's decor looks fresh. The room was clean &amp; the beds comfy. I especially liked their pillows. The breakfast in the morning was pretty good. I would say better than a lot of continental breakfasts. My only complaint would be that there wasn't a fridge in the room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r213620133-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>213620133</t>
+  </si>
+  <si>
+    <t>07/04/2014</t>
+  </si>
+  <si>
+    <t>Nice stay while heading to Boulder</t>
+  </si>
+  <si>
+    <t>I am a Marriott rewards member and I try to stay at Marriott hotels whenever I travel.  I have stayed  here before and have always been happy.  I love the Fairfield brands and I have stayed at most of them around this area.  This one is well kept, clean and the people working here are great.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r213353477-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>213353477</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>Great Property. Average Service</t>
+  </si>
+  <si>
+    <t>Beautiful hotel, not too far from shops. Werequested a 2pm checkout and got ,"I'll make note but can't guarantee it." Then we got a call the next day and when I told them it was supposed to be noted for a 2pm c/o the agent actually replied, "Well they didn't note it." Her attitude made me feel like I should grab my things and rush out, but when I said we'll try to leave soon she huffed and said she'll just honor the 2pm c/o as if we were totally inconveniencing her. After all that, the housekeeper still kept knocking despite the do not disturb sign.MoreShow less</t>
+  </si>
+  <si>
+    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded July 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2014</t>
+  </si>
+  <si>
+    <t>Beautiful hotel, not too far from shops. Werequested a 2pm checkout and got ,"I'll make note but can't guarantee it." Then we got a call the next day and when I told them it was supposed to be noted for a 2pm c/o the agent actually replied, "Well they didn't note it." Her attitude made me feel like I should grab my things and rush out, but when I said we'll try to leave soon she huffed and said she'll just honor the 2pm c/o as if we were totally inconveniencing her. After all that, the housekeeper still kept knocking despite the do not disturb sign.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r210092638-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>210092638</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>Never disappointed</t>
+  </si>
+  <si>
+    <t>We stay at the Fairfield whenever in Denver to visit family.  The rooms are always clean and quiet, the beds are comfortable and the front desk help is very friendly.  The breakfast has gotten better now with eggs, sausage and bacon.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r195137139-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>195137139</t>
+  </si>
+  <si>
+    <t>02/23/2014</t>
+  </si>
+  <si>
+    <t>Clean, comfortable and the nicest staff!</t>
+  </si>
+  <si>
+    <t>This hotel was great and if needed we would stay there again. The staff was the friendliest staff I have ever encountered. From the front desk, manager, housekeeping and person who worked the continental breakfast. They were all so nice and helpful. Room was very clean and comfortable. Doors closed without that big loud sound most hotels seemed to have so even though the hotel had a large amount of occupants we weren't kept awake by doors opening and closing all night.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded March 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was great and if needed we would stay there again. The staff was the friendliest staff I have ever encountered. From the front desk, manager, housekeeping and person who worked the continental breakfast. They were all so nice and helpful. Room was very clean and comfortable. Doors closed without that big loud sound most hotels seemed to have so even though the hotel had a large amount of occupants we weren't kept awake by doors opening and closing all night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r183435388-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>183435388</t>
+  </si>
+  <si>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Hotel was clean, and convenient to our son and the interstate. The staff got breakfast ready an hour early for us. With time and time zone change the little boys were up and hungry. Nice hot breakfast to get us going. Didn't get to use the pool but looked inviting. Would stay againMoreShow less</t>
+  </si>
+  <si>
+    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded November 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2013</t>
+  </si>
+  <si>
+    <t>Hotel was clean, and convenient to our son and the interstate. The staff got breakfast ready an hour early for us. With time and time zone change the little boys were up and hungry. Nice hot breakfast to get us going. Didn't get to use the pool but looked inviting. Would stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r182685799-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>182685799</t>
+  </si>
+  <si>
+    <t>10/28/2013</t>
+  </si>
+  <si>
+    <t>Nice staff BUT...</t>
+  </si>
+  <si>
+    <t>We was actually staying here for work but ended up moving hotels because my very expensive phone had mysteriously went missing after the maids came in to clean. The staff didnt seem to care or consider coming up with a solution. I would definitely not leave anything valuable or personal.MoreShow less</t>
+  </si>
+  <si>
+    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded October 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2013</t>
+  </si>
+  <si>
+    <t>We was actually staying here for work but ended up moving hotels because my very expensive phone had mysteriously went missing after the maids came in to clean. The staff didnt seem to care or consider coming up with a solution. I would definitely not leave anything valuable or personal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r175624825-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>175624825</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Very clean but VERY loud</t>
+  </si>
+  <si>
+    <t>The room was very clean, the parking lot well lit and in a nice location. But it was the loudest room I have ever stayed in. My room was next to the vending area, their was some kind of loud whining noise and the AC was extra loud. The bed was very comfortable and we were so exhausted from driving all day we managed to sleep.Ask for a room away from the vending / elevator areas and it will be much better.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded September 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2013</t>
+  </si>
+  <si>
+    <t>The room was very clean, the parking lot well lit and in a nice location. But it was the loudest room I have ever stayed in. My room was next to the vending area, their was some kind of loud whining noise and the AC was extra loud. The bed was very comfortable and we were so exhausted from driving all day we managed to sleep.Ask for a room away from the vending / elevator areas and it will be much better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r168413739-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>168413739</t>
+  </si>
+  <si>
+    <t>07/21/2013</t>
+  </si>
+  <si>
+    <t>The Fairfield staff is the BEST</t>
+  </si>
+  <si>
+    <t>Two of our Rush soccer teams (consisting of 12 and 13 year olds) from Boise Idaho joined 36 other teams from across the nation in Denver, Colorado for Rush Fest.  The reservation company that we went through made an error giving us less rooms that we needed.  The staff was patient and gracious and worked with us to make it work.
+The rooms were spacious, nice and clean.  The towels and bedding were soft.  The beds were comfortable.  The shower head was nice.
+There were not microwaves or refrigerators in the rooms and the vanity only had one sink and limited counter space.  These were the only things that I might say were a negative.  However, the staff were more than gracious and allowed our team use their refrigerator for our left over sandwiches and there was a microwave in the dining room which we could use at any time.  
+Staying with us in our hotel were two teams from Texas and a team from Southern California.  There were kids all over the place at all hours during the day.  I can't speak for other teams but I know our kids lost their keys several times and every time we asked for a key replacement the front desk staff was always more than happy to serve us.  
+I really can't say enough about the staff at this hotel.  We were there for the whole week and not once were we...Two of our Rush soccer teams (consisting of 12 and 13 year olds) from Boise Idaho joined 36 other teams from across the nation in Denver, Colorado for Rush Fest.  The reservation company that we went through made an error giving us less rooms that we needed.  The staff was patient and gracious and worked with us to make it work.The rooms were spacious, nice and clean.  The towels and bedding were soft.  The beds were comfortable.  The shower head was nice.There were not microwaves or refrigerators in the rooms and the vanity only had one sink and limited counter space.  These were the only things that I might say were a negative.  However, the staff were more than gracious and allowed our team use their refrigerator for our left over sandwiches and there was a microwave in the dining room which we could use at any time.  Staying with us in our hotel were two teams from Texas and a team from Southern California.  There were kids all over the place at all hours during the day.  I can't speak for other teams but I know our kids lost their keys several times and every time we asked for a key replacement the front desk staff was always more than happy to serve us.  I really can't say enough about the staff at this hotel.  We were there for the whole week and not once were we greeted or spoken to with a negative attitude.  Everyone was always cheerful and always ready to help out no matter our request.  The housekeeping staff were kind and polite.The breakfast was decent.  Fruit eggs, bagels, toast, waffles, etc.  Nothing spectacular but sufficient.  The location was perfect for our needs.  Close to the fields.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded August 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2013</t>
+  </si>
+  <si>
+    <t>Two of our Rush soccer teams (consisting of 12 and 13 year olds) from Boise Idaho joined 36 other teams from across the nation in Denver, Colorado for Rush Fest.  The reservation company that we went through made an error giving us less rooms that we needed.  The staff was patient and gracious and worked with us to make it work.
+The rooms were spacious, nice and clean.  The towels and bedding were soft.  The beds were comfortable.  The shower head was nice.
+There were not microwaves or refrigerators in the rooms and the vanity only had one sink and limited counter space.  These were the only things that I might say were a negative.  However, the staff were more than gracious and allowed our team use their refrigerator for our left over sandwiches and there was a microwave in the dining room which we could use at any time.  
+Staying with us in our hotel were two teams from Texas and a team from Southern California.  There were kids all over the place at all hours during the day.  I can't speak for other teams but I know our kids lost their keys several times and every time we asked for a key replacement the front desk staff was always more than happy to serve us.  
+I really can't say enough about the staff at this hotel.  We were there for the whole week and not once were we...Two of our Rush soccer teams (consisting of 12 and 13 year olds) from Boise Idaho joined 36 other teams from across the nation in Denver, Colorado for Rush Fest.  The reservation company that we went through made an error giving us less rooms that we needed.  The staff was patient and gracious and worked with us to make it work.The rooms were spacious, nice and clean.  The towels and bedding were soft.  The beds were comfortable.  The shower head was nice.There were not microwaves or refrigerators in the rooms and the vanity only had one sink and limited counter space.  These were the only things that I might say were a negative.  However, the staff were more than gracious and allowed our team use their refrigerator for our left over sandwiches and there was a microwave in the dining room which we could use at any time.  Staying with us in our hotel were two teams from Texas and a team from Southern California.  There were kids all over the place at all hours during the day.  I can't speak for other teams but I know our kids lost their keys several times and every time we asked for a key replacement the front desk staff was always more than happy to serve us.  I really can't say enough about the staff at this hotel.  We were there for the whole week and not once were we greeted or spoken to with a negative attitude.  Everyone was always cheerful and always ready to help out no matter our request.  The housekeeping staff were kind and polite.The breakfast was decent.  Fruit eggs, bagels, toast, waffles, etc.  Nothing spectacular but sufficient.  The location was perfect for our needs.  Close to the fields.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r168402694-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>168402694</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>Stayed at the Fairfield Inn in Westminster, Colorado and was very pleased with the experience.  The room was clean and well appointed.  The breakfast is included in your room rate and was great!  The hotel staff was very welcoming and we will definitely stay here again when we are back in the area.  We walked across the street and had a delicious dinner at the Perkins restaurant.  Not expensive and lots of food.  The location is perfect for sightseeing in the Denver and Cheyenne areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded October 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2013</t>
+  </si>
+  <si>
+    <t>Stayed at the Fairfield Inn in Westminster, Colorado and was very pleased with the experience.  The room was clean and well appointed.  The breakfast is included in your room rate and was great!  The hotel staff was very welcoming and we will definitely stay here again when we are back in the area.  We walked across the street and had a delicious dinner at the Perkins restaurant.  Not expensive and lots of food.  The location is perfect for sightseeing in the Denver and Cheyenne areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r166398100-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>166398100</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>Ok stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popped in for the night after a long days travel from kalispell Montana. Arrived at 9 and had to wait a bit for the front desk associate to arrive. Check in was smooth after that. Room was first floor and decent. Only complaints was the noise. Could easily hear the music being played next door through the wall but fortunately we had a box fan to drown out the noise. Woke up at 3am to heavy running/walking upstairs above us. This persisted for 30 mins before I just fell asleep again. Too tired to call to complain. Breakfast was fine. Lots of food available. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r160114029-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>160114029</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>Clean, Convenient, Courteous</t>
+  </si>
+  <si>
+    <t>My overall stay at the Fairfield Inn, Westminster Co., was great. The room was CLEAN. Location was convenient. Staff was courteous. Many eateries within walking distance. Aside from the noise coming from the upper floors, perhaps due to remodeling, our stay was pleasant. Breakfast selections were ample with great coffee. Exercise room was very clean and well kept. Pool area  was clean. Only bummer, patio was locked, couldn't enjoy my morning coffee outside.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r158705447-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>158705447</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>We stayed here 5 nights for our son's wedding.  First for 3 nights, then returned after the wedding in the mountains for 2 nights.   The room and service was good.  The eggs weren't so great at the breakfast bar but there were lots of others choices.  The staff was very friendly and helpful.  A complimentary copy of USA Today was available each weekday.  It was a good location for us to Broomfield, CO.  There is a good selection of restaurants nearby,  it is very convenient to I25 but is not noisy.MoreShow less</t>
+  </si>
+  <si>
+    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded April 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here 5 nights for our son's wedding.  First for 3 nights, then returned after the wedding in the mountains for 2 nights.   The room and service was good.  The eggs weren't so great at the breakfast bar but there were lots of others choices.  The staff was very friendly and helpful.  A complimentary copy of USA Today was available each weekday.  It was a good location for us to Broomfield, CO.  There is a good selection of restaurants nearby,  it is very convenient to I25 but is not noisy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r149960073-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>149960073</t>
+  </si>
+  <si>
+    <t>01/18/2013</t>
+  </si>
+  <si>
+    <t>Good value and location</t>
+  </si>
+  <si>
+    <t>I stayed here in December 2012, in a room on the second floor. The room was quiet and warm. The pool was cold but bearable.I stayed here again in January 2013 and got a room on the ground floor. This was a cold, draughty room. It was next to the fitness center and near to the breakfast room. Nights were disturbed by banging of doors, the loud tv over the treadmills, people yelling at their kids and just general people traffic. The pool was out of order 'until further notice'. This is a good value place, near to the highway, with good access to Denver and Boulder and within walking distance to two Starbucks. Internet access seemed fast and reliable. Make sure you get a room upstairs, though.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded August 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here in December 2012, in a room on the second floor. The room was quiet and warm. The pool was cold but bearable.I stayed here again in January 2013 and got a room on the ground floor. This was a cold, draughty room. It was next to the fitness center and near to the breakfast room. Nights were disturbed by banging of doors, the loud tv over the treadmills, people yelling at their kids and just general people traffic. The pool was out of order 'until further notice'. This is a good value place, near to the highway, with good access to Denver and Boulder and within walking distance to two Starbucks. Internet access seemed fast and reliable. Make sure you get a room upstairs, though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r146658500-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>146658500</t>
+  </si>
+  <si>
+    <t>12/02/2012</t>
+  </si>
+  <si>
+    <t>Clean and friendly, free wifi and parking, nice breakfast definitely would stay again ;)</t>
+  </si>
+  <si>
+    <t>My family stayed in 4 rooms for 3 days and all agreed that this hotel suited all of our needs above our expectations.  The rooms were roomy and extremely clean.  The fitness area offered a nice variety of equipment.  The pool, although a little small was clean and my dad had a good workout.  The jets in the spa were a little aggressive but we didn't mind;).   There was a nice breakfast area that offered hot and cold cereal, toast and bagels, breakfast sandwiches, fresh waffles, fruit, yogurt and muffins.  The lobby also offered fresh cookies to snack on in the evenings ;)   All of the staff was very friendly, professional and genuine.  They all gave me the impression that they truly liked their jobs and were happy to help make our stay a memorable one ;)  I would stay here again in a second and recommend you check it out if you are planning to be in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family stayed in 4 rooms for 3 days and all agreed that this hotel suited all of our needs above our expectations.  The rooms were roomy and extremely clean.  The fitness area offered a nice variety of equipment.  The pool, although a little small was clean and my dad had a good workout.  The jets in the spa were a little aggressive but we didn't mind;).   There was a nice breakfast area that offered hot and cold cereal, toast and bagels, breakfast sandwiches, fresh waffles, fruit, yogurt and muffins.  The lobby also offered fresh cookies to snack on in the evenings ;)   All of the staff was very friendly, professional and genuine.  They all gave me the impression that they truly liked their jobs and were happy to help make our stay a memorable one ;)  I would stay here again in a second and recommend you check it out if you are planning to be in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r142670691-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>142670691</t>
+  </si>
+  <si>
+    <t>10/12/2012</t>
+  </si>
+  <si>
+    <t>Nice Hotel, Great Staff</t>
+  </si>
+  <si>
+    <t>Stay in north Denver a lot due to daughters gymnastics, first time at this hotel. Has easy access to major roads and the areas we need to get to. Hotel was clean and well maintained, pool and spa area was very nice. Breakfast was basic hotel stuff but area was clean and well stocked. Staff was great, daughters meet ran long and they were happy to give a late check out. Seems to be a weekday business hotel as the weekend days did not seem busy so was very quite. Price was well within reason for the area and was one of the nicer hotels for that area of Denver. Will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Stay in north Denver a lot due to daughters gymnastics, first time at this hotel. Has easy access to major roads and the areas we need to get to. Hotel was clean and well maintained, pool and spa area was very nice. Breakfast was basic hotel stuff but area was clean and well stocked. Staff was great, daughters meet ran long and they were happy to give a late check out. Seems to be a weekday business hotel as the weekend days did not seem busy so was very quite. Price was well within reason for the area and was one of the nicer hotels for that area of Denver. Will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r135894669-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>135894669</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Motel OK</t>
+  </si>
+  <si>
+    <t>The Fairfield Inn (Westminster, CO) is very clean. However, there were some "small" things that bothered me. The swimming pool had just been cleaned; it wasn't very clear so to me it didn't look clean! The light above the sink in the bathroom didn't work. The positives: cleanliness of the room and friendliness of the staff. Also, I thought the price was a little on the expensive side.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>ffidenvern, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded September 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2012</t>
+  </si>
+  <si>
+    <t>The Fairfield Inn (Westminster, CO) is very clean. However, there were some "small" things that bothered me. The swimming pool had just been cleaned; it wasn't very clear so to me it didn't look clean! The light above the sink in the bathroom didn't work. The positives: cleanliness of the room and friendliness of the staff. Also, I thought the price was a little on the expensive side.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r135466650-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>135466650</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Nice Clean Hotel</t>
+  </si>
+  <si>
+    <t>We had to make a quick trip to Colorado and this Hotel was a perfect pick for us. Upon arrival check-in was smooth and quick. Our rooms were very clean and well taken care of. There are places to eat very close. This Hotel met our expectations and if I was in the area again I would gladly to here.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had to make a quick trip to Colorado and this Hotel was a perfect pick for us. Upon arrival check-in was smooth and quick. Our rooms were very clean and well taken care of. There are places to eat very close. This Hotel met our expectations and if I was in the area again I would gladly to here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r134202441-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>134202441</t>
+  </si>
+  <si>
+    <t>07/12/2012</t>
+  </si>
+  <si>
+    <t>It was fine</t>
+  </si>
+  <si>
+    <t>It's a pretty standard lower cost motel. The rooms were clean with fairly new appointments. A/C worked great, wifi is free which is always a nice bonus to a lower cost motel. Hallway and elevator floors could have been a tad bit cleaner, but I wasn't put off by this. Free continental breakfast was fairly standard and met my expectations. Bath towels were thin, as others have stated. Bed was comfortable with very clean and comfortable bedding and pillows. Overall, nothing special about this motel, but also nothing negative either. "It was fine."MoreShow less</t>
+  </si>
+  <si>
+    <t>It's a pretty standard lower cost motel. The rooms were clean with fairly new appointments. A/C worked great, wifi is free which is always a nice bonus to a lower cost motel. Hallway and elevator floors could have been a tad bit cleaner, but I wasn't put off by this. Free continental breakfast was fairly standard and met my expectations. Bath towels were thin, as others have stated. Bed was comfortable with very clean and comfortable bedding and pillows. Overall, nothing special about this motel, but also nothing negative either. "It was fine."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r132150774-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>132150774</t>
+  </si>
+  <si>
+    <t>06/17/2012</t>
+  </si>
+  <si>
+    <t>Can't say enough good things about this property.</t>
+  </si>
+  <si>
+    <t>We stayed at this Fairfield Inn for 4 nights. We usually stay at a more upscale property for stays of this length, however, we were very pleasantly surprised with the service, amenities, and cleanliness of this Fairfield Inn.  From the moment of check-in and all throughout our stay - everyone on staff was friendly, smiling, courteous, and very  helpful.  The room was clean, well-appointed, common areas were clean and not run down, and the breakfast area was clean, well-stocked, and well-maintained.  Definitely recommend this property -- whether for a short stay or a long one.  What a pleasant experience.  Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2012</t>
+  </si>
+  <si>
+    <t>We stayed at this Fairfield Inn for 4 nights. We usually stay at a more upscale property for stays of this length, however, we were very pleasantly surprised with the service, amenities, and cleanliness of this Fairfield Inn.  From the moment of check-in and all throughout our stay - everyone on staff was friendly, smiling, courteous, and very  helpful.  The room was clean, well-appointed, common areas were clean and not run down, and the breakfast area was clean, well-stocked, and well-maintained.  Definitely recommend this property -- whether for a short stay or a long one.  What a pleasant experience.  Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r131747182-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>131747182</t>
+  </si>
+  <si>
+    <t>06/11/2012</t>
+  </si>
+  <si>
+    <t>Business Travel</t>
+  </si>
+  <si>
+    <t>I recently stayed at this property for 2 nights while in the area for business. The location was great for my meetings and with close proximity to restaurants and shopping.The towels in the bathroom really need replaced; otherwise, the remodel looks great!Great hours on the exercise room -- 24 hours! I've stayed at other properties that don't open until 6am (I like to have my workout done by that time!).MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently stayed at this property for 2 nights while in the area for business. The location was great for my meetings and with close proximity to restaurants and shopping.The towels in the bathroom really need replaced; otherwise, the remodel looks great!Great hours on the exercise room -- 24 hours! I've stayed at other properties that don't open until 6am (I like to have my workout done by that time!).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r130495570-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>130495570</t>
+  </si>
+  <si>
+    <t>05/23/2012</t>
+  </si>
+  <si>
+    <t>Nice rooms, great customer service</t>
+  </si>
+  <si>
+    <t>I stayed for 4 nights last week.  Price/Value is very good.  The internet kept going off and they claimed I was the only one having that problem but I'm not sure that was the case.  I think I was the only one that complained.  My room was at the end of the hall by the mechanical room so there was some noise and I think that may have been the problem with the internet interference.  The lady at the front desk was really friendly, the rooms were nice for this type of property.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed for 4 nights last week.  Price/Value is very good.  The internet kept going off and they claimed I was the only one having that problem but I'm not sure that was the case.  I think I was the only one that complained.  My room was at the end of the hall by the mechanical room so there was some noise and I think that may have been the problem with the internet interference.  The lady at the front desk was really friendly, the rooms were nice for this type of property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r122599995-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>122599995</t>
+  </si>
+  <si>
+    <t>01/05/2012</t>
+  </si>
+  <si>
+    <t>Ok Business Hotel Nothing More / Nothing Less</t>
+  </si>
+  <si>
+    <t>Standard fare business hotel. Updated remodeled rooms. Free Breakfast. Dinning options within walking distance are somewhat limited. Has indoor pool &amp; free wifi.Average business hotel nothing more / nothing less.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>ffidenvern, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded January 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2012</t>
+  </si>
+  <si>
+    <t>Standard fare business hotel. Updated remodeled rooms. Free Breakfast. Dinning options within walking distance are somewhat limited. Has indoor pool &amp; free wifi.Average business hotel nothing more / nothing less.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r117156098-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>117156098</t>
+  </si>
+  <si>
+    <t>08/23/2011</t>
+  </si>
+  <si>
+    <t>Good place, comfy room</t>
+  </si>
+  <si>
+    <t>This is a pretty good Marriott, with comfortable beds and large rooms. The rooms are equivalent to what you'd find in a Courtyard. Breakfast is good.  The free internet required patience and many retries to get it started.  It is convenient to I-25.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r116749311-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>116749311</t>
+  </si>
+  <si>
+    <t>08/15/2011</t>
+  </si>
+  <si>
+    <t>Great place for a business trip - clean and quiet</t>
+  </si>
+  <si>
+    <t>I had business in Westminster and found this Fairfield Inn's location very convenient.It is off of 120th Street and only a block away from I-25. The room was clean and provided all the basics. They have a breakfast buffet with several choices.The hotel is within walking distance of several restaurants.There is a small indoor pool.The staff was friendly and efficient.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r97622229-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>97622229</t>
+  </si>
+  <si>
+    <t>02/22/2011</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>Cannot say enough about what a clean, lovely and comfy place this Fairfield Inn was last weekend!  The staff was very friendly and helpful.  The price was great!  We will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>Charlotte707, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded March 16, 2011</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2011</t>
+  </si>
+  <si>
+    <t>Cannot say enough about what a clean, lovely and comfy place this Fairfield Inn was last weekend!  The staff was very friendly and helpful.  The price was great!  We will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r89150648-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>89150648</t>
+  </si>
+  <si>
+    <t>12/06/2010</t>
+  </si>
+  <si>
+    <t>Excellent Accommodations and Staff</t>
+  </si>
+  <si>
+    <t>The Fairfield Inn Denver North has very nice accommodations and the staff is just great; they remember you by name and always speak to everyone entering or leaving the lobby.  excellent location near I-25.  Clean rooms and good comp breakfast.  Tommy is one of the best desk clearks I've experienced with Marriott in many years!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>The Fairfield Inn Denver North has very nice accommodations and the staff is just great; they remember you by name and always speak to everyone entering or leaving the lobby.  excellent location near I-25.  Clean rooms and good comp breakfast.  Tommy is one of the best desk clearks I've experienced with Marriott in many years!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r88773065-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>88773065</t>
+  </si>
+  <si>
+    <t>12/01/2010</t>
+  </si>
+  <si>
+    <t>Great hotel for the price</t>
+  </si>
+  <si>
+    <t>My wife and I spent four nights here over Thanksgiving while we were visiting family. This hotel is very family friendly. The rooms and premises are very clean, the staff very friendly and the price is very reasonable. Also an excellent location near restaurants, shopping and the park and ride bus terminal.  We will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>Charlotte707, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded December 7, 2010</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2010</t>
+  </si>
+  <si>
+    <t>My wife and I spent four nights here over Thanksgiving while we were visiting family. This hotel is very family friendly. The rooms and premises are very clean, the staff very friendly and the price is very reasonable. Also an excellent location near restaurants, shopping and the park and ride bus terminal.  We will stay again.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1857,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1889,3931 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>148</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>148</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>173</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>174</v>
+      </c>
+      <c r="X18" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>187</v>
+      </c>
+      <c r="X20" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21" t="s">
+        <v>173</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>187</v>
+      </c>
+      <c r="X21" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>166</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>213</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>214</v>
+      </c>
+      <c r="X24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>213</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>222</v>
+      </c>
+      <c r="X25" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>230</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27" t="s">
+        <v>233</v>
+      </c>
+      <c r="K27" t="s">
+        <v>234</v>
+      </c>
+      <c r="L27" t="s">
+        <v>235</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>230</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>237</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>238</v>
+      </c>
+      <c r="J28" t="s">
+        <v>239</v>
+      </c>
+      <c r="K28" t="s">
+        <v>240</v>
+      </c>
+      <c r="L28" t="s">
+        <v>241</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>243</v>
+      </c>
+      <c r="J29" t="s">
+        <v>244</v>
+      </c>
+      <c r="K29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L29" t="s">
+        <v>246</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>247</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>248</v>
+      </c>
+      <c r="X29" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>252</v>
+      </c>
+      <c r="J30" t="s">
+        <v>253</v>
+      </c>
+      <c r="K30" t="s">
+        <v>254</v>
+      </c>
+      <c r="L30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>256</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>257</v>
+      </c>
+      <c r="X30" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>261</v>
+      </c>
+      <c r="J31" t="s">
+        <v>253</v>
+      </c>
+      <c r="K31" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" t="s">
+        <v>263</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>256</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>264</v>
+      </c>
+      <c r="X31" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" t="s">
+        <v>269</v>
+      </c>
+      <c r="K32" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" t="s">
+        <v>271</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>272</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>273</v>
+      </c>
+      <c r="J33" t="s">
+        <v>274</v>
+      </c>
+      <c r="K33" t="s">
+        <v>275</v>
+      </c>
+      <c r="L33" t="s">
+        <v>276</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>277</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>279</v>
+      </c>
+      <c r="J34" t="s">
+        <v>280</v>
+      </c>
+      <c r="K34" t="s">
+        <v>281</v>
+      </c>
+      <c r="L34" t="s">
+        <v>282</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>277</v>
+      </c>
+      <c r="O34" t="s">
+        <v>148</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>284</v>
+      </c>
+      <c r="J35" t="s">
+        <v>285</v>
+      </c>
+      <c r="K35" t="s">
+        <v>286</v>
+      </c>
+      <c r="L35" t="s">
+        <v>287</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>288</v>
+      </c>
+      <c r="O35" t="s">
+        <v>95</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>289</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>290</v>
+      </c>
+      <c r="J36" t="s">
+        <v>291</v>
+      </c>
+      <c r="K36" t="s">
+        <v>292</v>
+      </c>
+      <c r="L36" t="s">
+        <v>293</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>294</v>
+      </c>
+      <c r="X36" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>297</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>298</v>
+      </c>
+      <c r="J37" t="s">
+        <v>299</v>
+      </c>
+      <c r="K37" t="s">
+        <v>300</v>
+      </c>
+      <c r="L37" t="s">
+        <v>301</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>288</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>302</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>303</v>
+      </c>
+      <c r="J38" t="s">
+        <v>304</v>
+      </c>
+      <c r="K38" t="s">
+        <v>305</v>
+      </c>
+      <c r="L38" t="s">
+        <v>306</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>307</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>308</v>
+      </c>
+      <c r="X38" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>311</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>312</v>
+      </c>
+      <c r="J39" t="s">
+        <v>313</v>
+      </c>
+      <c r="K39" t="s">
+        <v>314</v>
+      </c>
+      <c r="L39" t="s">
+        <v>315</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>316</v>
+      </c>
+      <c r="X39" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>319</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>320</v>
+      </c>
+      <c r="J40" t="s">
+        <v>321</v>
+      </c>
+      <c r="K40" t="s">
+        <v>322</v>
+      </c>
+      <c r="L40" t="s">
+        <v>323</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>324</v>
+      </c>
+      <c r="X40" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>327</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>328</v>
+      </c>
+      <c r="J41" t="s">
+        <v>329</v>
+      </c>
+      <c r="K41" t="s">
+        <v>330</v>
+      </c>
+      <c r="L41" t="s">
+        <v>331</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>332</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>333</v>
+      </c>
+      <c r="X41" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>336</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>337</v>
+      </c>
+      <c r="J42" t="s">
+        <v>338</v>
+      </c>
+      <c r="K42" t="s">
+        <v>339</v>
+      </c>
+      <c r="L42" t="s">
+        <v>340</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>341</v>
+      </c>
+      <c r="O42" t="s">
+        <v>173</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>342</v>
+      </c>
+      <c r="X42" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>345</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>346</v>
+      </c>
+      <c r="J43" t="s">
+        <v>338</v>
+      </c>
+      <c r="K43" t="s">
+        <v>347</v>
+      </c>
+      <c r="L43" t="s">
+        <v>348</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>341</v>
+      </c>
+      <c r="O43" t="s">
+        <v>148</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>349</v>
+      </c>
+      <c r="X43" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>352</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>353</v>
+      </c>
+      <c r="J44" t="s">
+        <v>354</v>
+      </c>
+      <c r="K44" t="s">
+        <v>355</v>
+      </c>
+      <c r="L44" t="s">
+        <v>356</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>357</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>358</v>
+      </c>
+      <c r="J45" t="s">
+        <v>359</v>
+      </c>
+      <c r="K45" t="s">
+        <v>360</v>
+      </c>
+      <c r="L45" t="s">
+        <v>361</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>362</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>363</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>364</v>
+      </c>
+      <c r="J46" t="s">
+        <v>365</v>
+      </c>
+      <c r="K46" t="s">
+        <v>366</v>
+      </c>
+      <c r="L46" t="s">
+        <v>367</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>362</v>
+      </c>
+      <c r="O46" t="s">
+        <v>148</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>368</v>
+      </c>
+      <c r="X46" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>371</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>372</v>
+      </c>
+      <c r="J47" t="s">
+        <v>373</v>
+      </c>
+      <c r="K47" t="s">
+        <v>374</v>
+      </c>
+      <c r="L47" t="s">
+        <v>375</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>376</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>377</v>
+      </c>
+      <c r="X47" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>380</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>381</v>
+      </c>
+      <c r="J48" t="s">
+        <v>382</v>
+      </c>
+      <c r="K48" t="s">
+        <v>383</v>
+      </c>
+      <c r="L48" t="s">
+        <v>384</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>386</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>387</v>
+      </c>
+      <c r="J49" t="s">
+        <v>388</v>
+      </c>
+      <c r="K49" t="s">
+        <v>389</v>
+      </c>
+      <c r="L49" t="s">
+        <v>390</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>391</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>393</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>394</v>
+      </c>
+      <c r="J50" t="s">
+        <v>395</v>
+      </c>
+      <c r="K50" t="s">
+        <v>396</v>
+      </c>
+      <c r="L50" t="s">
+        <v>397</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>398</v>
+      </c>
+      <c r="O50" t="s">
+        <v>148</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>399</v>
+      </c>
+      <c r="X50" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>402</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>403</v>
+      </c>
+      <c r="J51" t="s">
+        <v>404</v>
+      </c>
+      <c r="K51" t="s">
+        <v>405</v>
+      </c>
+      <c r="L51" t="s">
+        <v>406</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>398</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>399</v>
+      </c>
+      <c r="X51" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>408</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>409</v>
+      </c>
+      <c r="J52" t="s">
+        <v>410</v>
+      </c>
+      <c r="K52" t="s">
+        <v>411</v>
+      </c>
+      <c r="L52" t="s">
+        <v>412</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>398</v>
+      </c>
+      <c r="O52" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>399</v>
+      </c>
+      <c r="X52" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>414</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>415</v>
+      </c>
+      <c r="J53" t="s">
+        <v>416</v>
+      </c>
+      <c r="K53" t="s">
+        <v>417</v>
+      </c>
+      <c r="L53" t="s">
+        <v>418</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>419</v>
+      </c>
+      <c r="O53" t="s">
+        <v>148</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>420</v>
+      </c>
+      <c r="X53" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>423</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>424</v>
+      </c>
+      <c r="J54" t="s">
+        <v>425</v>
+      </c>
+      <c r="K54" t="s">
+        <v>426</v>
+      </c>
+      <c r="L54" t="s">
+        <v>427</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>419</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>420</v>
+      </c>
+      <c r="X54" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>429</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>430</v>
+      </c>
+      <c r="J55" t="s">
+        <v>431</v>
+      </c>
+      <c r="K55" t="s">
+        <v>432</v>
+      </c>
+      <c r="L55" t="s">
+        <v>433</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>419</v>
+      </c>
+      <c r="O55" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>420</v>
+      </c>
+      <c r="X55" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>435</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>436</v>
+      </c>
+      <c r="J56" t="s">
+        <v>437</v>
+      </c>
+      <c r="K56" t="s">
+        <v>438</v>
+      </c>
+      <c r="L56" t="s">
+        <v>439</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>440</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>441</v>
+      </c>
+      <c r="X56" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>445</v>
+      </c>
+      <c r="J57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K57" t="s">
+        <v>447</v>
+      </c>
+      <c r="L57" t="s">
+        <v>448</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>449</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>450</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>451</v>
+      </c>
+      <c r="J58" t="s">
+        <v>452</v>
+      </c>
+      <c r="K58" t="s">
+        <v>453</v>
+      </c>
+      <c r="L58" t="s">
+        <v>454</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>449</v>
+      </c>
+      <c r="O58" t="s">
+        <v>95</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>455</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>456</v>
+      </c>
+      <c r="J59" t="s">
+        <v>457</v>
+      </c>
+      <c r="K59" t="s">
+        <v>458</v>
+      </c>
+      <c r="L59" t="s">
+        <v>459</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>460</v>
+      </c>
+      <c r="O59" t="s">
+        <v>148</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>461</v>
+      </c>
+      <c r="X59" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>464</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>465</v>
+      </c>
+      <c r="J60" t="s">
+        <v>466</v>
+      </c>
+      <c r="K60" t="s">
+        <v>467</v>
+      </c>
+      <c r="L60" t="s">
+        <v>468</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>469</v>
+      </c>
+      <c r="O60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>461</v>
+      </c>
+      <c r="X60" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>471</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>472</v>
+      </c>
+      <c r="J61" t="s">
+        <v>473</v>
+      </c>
+      <c r="K61" t="s">
+        <v>474</v>
+      </c>
+      <c r="L61" t="s">
+        <v>475</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>476</v>
+      </c>
+      <c r="O61" t="s">
+        <v>148</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>477</v>
+      </c>
+      <c r="X61" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_91.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_91.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="768">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,126 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/02/2018</t>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r605823049-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>33691</t>
+  </si>
+  <si>
+    <t>223984</t>
+  </si>
+  <si>
+    <t>605823049</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>Lovely place for R&amp;R</t>
+  </si>
+  <si>
+    <t>We thoroughly enjoyed this Fairfield Inn. From the moment I checked in with Isaac (from Kansas but is a Giants and Browns fan), the experience there was a complete delight. Isaac even followed up within 10 minutes of my arrival to make sure everything was acceptable in the room. Indeed, the room was spotless. The beds...heavenly.The front desk was knowledgeable about eateries,and friendly at check-in and check-out the next morning. Homemade cookies at 4:30 pm. Water laced with lime, then cucumber the following day next to the coffee stand for us water-holics.What a fabulous place to R&amp;R!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Casey H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>We thoroughly enjoyed this Fairfield Inn. From the moment I checked in with Isaac (from Kansas but is a Giants and Browns fan), the experience there was a complete delight. Isaac even followed up within 10 minutes of my arrival to make sure everything was acceptable in the room. Indeed, the room was spotless. The beds...heavenly.The front desk was knowledgeable about eateries,and friendly at check-in and check-out the next morning. Homemade cookies at 4:30 pm. Water laced with lime, then cucumber the following day next to the coffee stand for us water-holics.What a fabulous place to R&amp;R!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r603340556-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>603340556</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>The gal at check in was terrific. We didn’t get to the hotel until 9:30. Due to the hotel being full we were put into the last room available which was a handicap room. We had made a reservation several weeks prior so this wasn’t a last minute reservation. The section is for management as an observation nothing negative just my thoughts. I believe this room would difficult to use for a handicapped person. The shower was good as it is a roll in roll out and they do have a shower chair located there. Kudos there.  However the sink area is so small it was difficult to put items on sink such as blow dryer curling rod, cosmetics etc. the shower had no place to put your shampoo and soap etc. in it. I’m not positive but the mirror might not be low enough to view from a wheelchair.  Other than those observations the room was great and your staff was very pleasant. MoreShow less</t>
+  </si>
+  <si>
+    <t>Diana T, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>The gal at check in was terrific. We didn’t get to the hotel until 9:30. Due to the hotel being full we were put into the last room available which was a handicap room. We had made a reservation several weeks prior so this wasn’t a last minute reservation. The section is for management as an observation nothing negative just my thoughts. I believe this room would difficult to use for a handicapped person. The shower was good as it is a roll in roll out and they do have a shower chair located there. Kudos there.  However the sink area is so small it was difficult to put items on sink such as blow dryer curling rod, cosmetics etc. the shower had no place to put your shampoo and soap etc. in it. I’m not positive but the mirror might not be low enough to view from a wheelchair.  Other than those observations the room was great and your staff was very pleasant. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r601474260-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>601474260</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Basic hotel, nothing special. You get what you pay for</t>
+  </si>
+  <si>
+    <t>Basic Hotel. Nothing special... rooms are clean and staff were nice. One thing I will say though is ONLY the Suites have a microwave in them. I had a king room so there was no microwave. Not that big of a deal but I wanted to let you know. They have a basic breakfast too. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Casey H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Basic Hotel. Nothing special... rooms are clean and staff were nice. One thing I will say though is ONLY the Suites have a microwave in them. I had a king room so there was no microwave. Not that big of a deal but I wanted to let you know. They have a basic breakfast too. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r601260362-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>601260362</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Impressive</t>
+  </si>
+  <si>
+    <t>The first thing that sets this Fairfield Hotel apart is the friendliness of the staff. We were able to get a late checkout to enjoy a little more time at nearby Water World. The room was exquisitely clean and a more delightful room I have never smelt. Our stay was wonderful and memorable. Will be back on our next visit to Denver and Water World.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Casey H, Guest Service Agent at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>The first thing that sets this Fairfield Hotel apart is the friendliness of the staff. We were able to get a late checkout to enjoy a little more time at nearby Water World. The room was exquisitely clean and a more delightful room I have never smelt. Our stay was wonderful and memorable. Will be back on our next visit to Denver and Water World.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r590658023-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
-    <t>33691</t>
-  </si>
-  <si>
-    <t>223984</t>
-  </si>
-  <si>
     <t>590658023</t>
   </si>
   <si>
@@ -177,9 +285,6 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Diana T, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded June 27, 2018</t>
   </si>
   <si>
@@ -207,9 +312,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Diana T, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded June 2, 2018</t>
   </si>
   <si>
@@ -243,6 +345,60 @@
     <t>My family of 4 stayed here 1 night over Memorial Day weekend. Very easy to find hotel and around plenty of restaurants and shopping. They are currently renovating, so there was some drilling noise on the 1st floor.  No big deal to us. We had a nice quiet location on the 3rd floor. Rooms are modern, beds very comfy, and lots of Direct TV channels to watch. Pool and hot tub were nice. Everything was clean. My extra pillows, requested thru the Marriott app, were hand delivered to our room by Will, who also assisted me at the front desk. He was very friendly and attentive. Breakfast was typical of Marriott hotels, hot and cold items. Good coffee. Only bad thing was the "weird" sausage patties. My husband took one bite and didn't want another. They looked fine but were mushy and strange inside. Overall, great stay. Definitely would stay againMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r582658129-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>582658129</t>
+  </si>
+  <si>
+    <t>05/25/2018</t>
+  </si>
+  <si>
+    <t>Average Fairfield, average Fairfield food, but great service</t>
+  </si>
+  <si>
+    <t>Just a little bit of construction left last week (mid-May) but nothing annoying. The hotel is in a good location if you need to be on the North side of Denver. Plenty of places to eat within a short drive, even a bunch within a 2-3 block walk. 
+This however is one of the noisier Fairfields I've been in. Walls are very thin and anyone talking louder than normal or TV higher than normal you can easily hear it in your room, even if they are several rooms down the hall or across from you. Luckily I was on the top floor for a week, and I try to walk around gently, but I could tell the floors are wooden and I know the people below had to be hearing me walk around. 
+Indoor pool and hot tub are pretty good. Breakfast area is about the normal Fairfield size but can be challenging to find a place to sit at certain times on certain day. Be there at 7am one day, it's packed, the next day at 7am only 2 people there, so it's really hit and miss. The food is typical Fairfield, scrambled eggs, sausage, cereals, muffins, etc.
+What really makes this hotel special is the assistant manager, Will Smith (no relation to the actor). In all my travels with Marriott (I'm lifetime Platinum with over 2.5 million points and over 1,000 stays), I can honestly say that I've...Just a little bit of construction left last week (mid-May) but nothing annoying. The hotel is in a good location if you need to be on the North side of Denver. Plenty of places to eat within a short drive, even a bunch within a 2-3 block walk. This however is one of the noisier Fairfields I've been in. Walls are very thin and anyone talking louder than normal or TV higher than normal you can easily hear it in your room, even if they are several rooms down the hall or across from you. Luckily I was on the top floor for a week, and I try to walk around gently, but I could tell the floors are wooden and I know the people below had to be hearing me walk around. Indoor pool and hot tub are pretty good. Breakfast area is about the normal Fairfield size but can be challenging to find a place to sit at certain times on certain day. Be there at 7am one day, it's packed, the next day at 7am only 2 people there, so it's really hit and miss. The food is typical Fairfield, scrambled eggs, sausage, cereals, muffins, etc.What really makes this hotel special is the assistant manager, Will Smith (no relation to the actor). In all my travels with Marriott (I'm lifetime Platinum with over 2.5 million points and over 1,000 stays), I can honestly say that I've never seen a manger so willing to go the extra mile without even being asked to do so. I mean, he gets out from behind the front desk, cleans tables, cleans the top of the garbage can, makes sure the food is stocked and presentable, etc. I'm sure Will will go a long way in the business!I will definitely be back!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Diana T, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded May 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2018</t>
+  </si>
+  <si>
+    <t>Just a little bit of construction left last week (mid-May) but nothing annoying. The hotel is in a good location if you need to be on the North side of Denver. Plenty of places to eat within a short drive, even a bunch within a 2-3 block walk. 
+This however is one of the noisier Fairfields I've been in. Walls are very thin and anyone talking louder than normal or TV higher than normal you can easily hear it in your room, even if they are several rooms down the hall or across from you. Luckily I was on the top floor for a week, and I try to walk around gently, but I could tell the floors are wooden and I know the people below had to be hearing me walk around. 
+Indoor pool and hot tub are pretty good. Breakfast area is about the normal Fairfield size but can be challenging to find a place to sit at certain times on certain day. Be there at 7am one day, it's packed, the next day at 7am only 2 people there, so it's really hit and miss. The food is typical Fairfield, scrambled eggs, sausage, cereals, muffins, etc.
+What really makes this hotel special is the assistant manager, Will Smith (no relation to the actor). In all my travels with Marriott (I'm lifetime Platinum with over 2.5 million points and over 1,000 stays), I can honestly say that I've...Just a little bit of construction left last week (mid-May) but nothing annoying. The hotel is in a good location if you need to be on the North side of Denver. Plenty of places to eat within a short drive, even a bunch within a 2-3 block walk. This however is one of the noisier Fairfields I've been in. Walls are very thin and anyone talking louder than normal or TV higher than normal you can easily hear it in your room, even if they are several rooms down the hall or across from you. Luckily I was on the top floor for a week, and I try to walk around gently, but I could tell the floors are wooden and I know the people below had to be hearing me walk around. Indoor pool and hot tub are pretty good. Breakfast area is about the normal Fairfield size but can be challenging to find a place to sit at certain times on certain day. Be there at 7am one day, it's packed, the next day at 7am only 2 people there, so it's really hit and miss. The food is typical Fairfield, scrambled eggs, sausage, cereals, muffins, etc.What really makes this hotel special is the assistant manager, Will Smith (no relation to the actor). In all my travels with Marriott (I'm lifetime Platinum with over 2.5 million points and over 1,000 stays), I can honestly say that I've never seen a manger so willing to go the extra mile without even being asked to do so. I mean, he gets out from behind the front desk, cleans tables, cleans the top of the garbage can, makes sure the food is stocked and presentable, etc. I'm sure Will will go a long way in the business!I will definitely be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r576854612-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>576854612</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Under construction but nice</t>
+  </si>
+  <si>
+    <t>Had a kiddos basketball tournament in Denver and this hotel was in the best location for our needs Lots of restaurants and even a little mini golf/go cart place about 2 miles a way.   There is a convenience store close by for snack and drink purchases. The hotel was under construction but the staff were courteous and went out of their way to help with any issues caused by the construction.   It looks like it will be done soon and the hotel will be updated and improved.  The front desk guy- Will was fantastic.  He was navigating construction and 15 basketball players running around  eating everything from the continental breakfast with a smile and was just great.   This is a great family hotel.  Nice, large clean rooms with comfy beds. Little indoor pool and jacuzzi.  Not the fanciest place but clean and safe and despite the construction mess- we had no issues.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Had a kiddos basketball tournament in Denver and this hotel was in the best location for our needs Lots of restaurants and even a little mini golf/go cart place about 2 miles a way.   There is a convenience store close by for snack and drink purchases. The hotel was under construction but the staff were courteous and went out of their way to help with any issues caused by the construction.   It looks like it will be done soon and the hotel will be updated and improved.  The front desk guy- Will was fantastic.  He was navigating construction and 15 basketball players running around  eating everything from the continental breakfast with a smile and was just great.   This is a great family hotel.  Nice, large clean rooms with comfy beds. Little indoor pool and jacuzzi.  Not the fanciest place but clean and safe and despite the construction mess- we had no issues.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r573103775-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -258,9 +414,6 @@
     <t>The lobby and breakfast room are under construction and it really is a pain. For all practical purposes, there is no lobby. The only thing there is the desk to check in or out. I wanted to sit down while I waited for my business partner, but too bad for me because there are no seats, couches, chairs, nada. The breakfast room might have been an alternative but it's currently a fraction of the size it should be while most of the space is under construction and the few chairs there were occupied. The breakfast selection was also quite limited, probably due to the lack of space to set much out. Finally, the "hot" selections; eggs, bacon, sausage were actually cold.On the positive side, the room was fantastic - clean and comfortable. The staff was friendly (and a bit apologetic). The wi-fi was strong and uninterrupted. Had we known it was under construction we would have stayed somewhere else. Once the construction is completed I'm sure things will be fine.MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
     <t>Diana T, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded April 14, 2018</t>
   </si>
   <si>
@@ -303,7 +456,40 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r564160542-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>564160542</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Debt free holiday at great hotel</t>
+  </si>
+  <si>
+    <t>This was our reward for becoming debt free.  We went to spend a couple days with my son in Denver.  Very easy to check in.  Lovely kitchenette in our room, and the pool was open late.  Very large breakfast area with large variety of breakfast foods.  The beds were a little too firm, but our overall stay was great.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r555266429-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>555266429</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly staff and clean rooms. They done a great job with the breakfast offering a wide variety of foods to eat. Waffles, scrambled eggs, omelets, bacon, oatmeal, fresh fruits, a variety of breads, juices, milk, and cereal. </t>
+  </si>
+  <si>
+    <t>January 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r554027586-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
@@ -366,6 +552,51 @@
     <t xml:space="preserve">The hotel is very clean and the staff was very pleasant.  Breakfast was typical hotel fare but it did vary from day to day which was nice.  We would definitely stay there again.  The pool area was well-maintained </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r523740396-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>523740396</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>When we arrived the staff treated us really well. Gave us directions to eating spots in the area which worked out well. The room was very clean and the entire property was well taken care of. Very close (walking distance) to a park n ride for the metro bus system. We used this when going to a Broncos game and it worked really well. We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2017</t>
+  </si>
+  <si>
+    <t>When we arrived the staff treated us really well. Gave us directions to eating spots in the area which worked out well. The room was very clean and the entire property was well taken care of. Very close (walking distance) to a park n ride for the metro bus system. We used this when going to a Broncos game and it worked really well. We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r520624100-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>520624100</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>Only day one and I'm so impressed</t>
+  </si>
+  <si>
+    <t>We arrived here way before check in time. They were able to get our room sorted quickly and cleaned up, and that really meant a load after driving six hours straight and up since five am.Our room is absolutely spotless and clean, and felt like a furnished loft which was nice. It's hornet season in Colorado, which we found out it was from our friends. But some hornets (8-10)were starting a nest right outside of our window. We alerted the staff just so they wouldn't have a hoard and they not only sprayed and cleaned it up, but also left a note, snacks, and drinks as an apology, and really made sure we were satisfied. We're here another three days, and it's honestly my favorite of the five we've been in so far. A special thanks to win, the front staff on 9/2 and their gm will. We really appreciate it! MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived here way before check in time. They were able to get our room sorted quickly and cleaned up, and that really meant a load after driving six hours straight and up since five am.Our room is absolutely spotless and clean, and felt like a furnished loft which was nice. It's hornet season in Colorado, which we found out it was from our friends. But some hornets (8-10)were starting a nest right outside of our window. We alerted the staff just so they wouldn't have a hoard and they not only sprayed and cleaned it up, but also left a note, snacks, and drinks as an apology, and really made sure we were satisfied. We're here another three days, and it's honestly my favorite of the five we've been in so far. A special thanks to win, the front staff on 9/2 and their gm will. We really appreciate it! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r510969793-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -405,9 +636,6 @@
     <t>I had called a number of hotels in the Westminster, Colorado area and was unable to find a 'last minute' hotel.  Then my luck changed!!!  I had the pleasure of speaking with Frank at the Fairfield Inn &amp; Suites and he made the "MAGIC" happen!!!  He graciously upgraded our room free of charge to an Executive Queen Suite because we had 4 adults and 2 children in our party.  Frank introduced me to Will and informed me that both of them would be there to help make our visit wonderful.  When there was an issue with the indoor pool, Will and Frank immediately took care of the situation.  Our room was very spacious, clean and nicely decorated.  The morning breakfast was very good!  Our grandchildren LOVED the selection.  Thank you......Frank and Will for making our stay so GREAT your customer service was AMAZING!!!!  You are both wonderful ambassadors for the Marriott Corporation.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>Management response:Responded July 24, 2017</t>
   </si>
   <si>
@@ -444,27 +672,71 @@
     <t>The general manager Diana Thate was so accommodating!! We got in late our first night and when we got to our room we noticed the air conditioner was not working and was so loud! I notified the front desk and the gentleman said he would make sure someone took care of it the next morning. Ms. Thate came to our room the next morning and after seeing that our air conditioner could not be an easy fix she upgraded us to a bigger room for the remainder of our stay. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r493871730-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>493871730</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location, noisy, service sorely lacking. </t>
+  </si>
+  <si>
+    <t>We stayed three nights at the Fairfield Inn &amp; Suites and we should have known from the first night that the hotel's service was not up to par. 
+A large party of children, teens, and not enough adults to supervise them all checked in late the first night of our stay. I found out they had ten rooms throughout the hotel. Unfortunately a youngster with a drum had the room above us and several teen-age girls with very loud voices who liked to knock the headboards against the wall and curse loudly were next door. 
+Between the people above us who sounded as if they were moving furniture at 11:00 pm and the teenagers next door, we were miserable. I finally called down to the front desk about 12:30 am and the night clerk said he would contact their chaperone and ask them to quiet down. That worked...for about 20 minutes. The noise and laughing and screaming continued until about 2:45 am. Finally the girls quieted down but it made for an upsetting night, especially since we had an early and very busy day the next day. 
+I spoke to the front desk personnel the next morning who apologized. I asked to speak to the manager but she was off property. I asked that she please call me. 
+The remainder of our stay was uneventful. The hotel was nice enough. The rooms were fairly clean, although it would have been...We stayed three nights at the Fairfield Inn &amp; Suites and we should have known from the first night that the hotel's service was not up to par. A large party of children, teens, and not enough adults to supervise them all checked in late the first night of our stay. I found out they had ten rooms throughout the hotel. Unfortunately a youngster with a drum had the room above us and several teen-age girls with very loud voices who liked to knock the headboards against the wall and curse loudly were next door. Between the people above us who sounded as if they were moving furniture at 11:00 pm and the teenagers next door, we were miserable. I finally called down to the front desk about 12:30 am and the night clerk said he would contact their chaperone and ask them to quiet down. That worked...for about 20 minutes. The noise and laughing and screaming continued until about 2:45 am. Finally the girls quieted down but it made for an upsetting night, especially since we had an early and very busy day the next day. I spoke to the front desk personnel the next morning who apologized. I asked to speak to the manager but she was off property. I asked that she please call me. The remainder of our stay was uneventful. The hotel was nice enough. The rooms were fairly clean, although it would have been nice if housekeeping had replenished the bath products as they didn't last long. The breakfast was fairly good, although crowded and a bit messy. When we checked out two days later I still hadn't heard from the manager. The lady that checked me out assured me the manager would call to discuss my dissatisfaction with the first night of our stay. That was nearly 10 days ago and I haven't heard a word. So I must conclude they don't much care about the experience of their guests. I'm a frequent guests at Marriott properties and usually have positive experiences. It was a shame this one was in the minority. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>We stayed three nights at the Fairfield Inn &amp; Suites and we should have known from the first night that the hotel's service was not up to par. 
+A large party of children, teens, and not enough adults to supervise them all checked in late the first night of our stay. I found out they had ten rooms throughout the hotel. Unfortunately a youngster with a drum had the room above us and several teen-age girls with very loud voices who liked to knock the headboards against the wall and curse loudly were next door. 
+Between the people above us who sounded as if they were moving furniture at 11:00 pm and the teenagers next door, we were miserable. I finally called down to the front desk about 12:30 am and the night clerk said he would contact their chaperone and ask them to quiet down. That worked...for about 20 minutes. The noise and laughing and screaming continued until about 2:45 am. Finally the girls quieted down but it made for an upsetting night, especially since we had an early and very busy day the next day. 
+I spoke to the front desk personnel the next morning who apologized. I asked to speak to the manager but she was off property. I asked that she please call me. 
+The remainder of our stay was uneventful. The hotel was nice enough. The rooms were fairly clean, although it would have been...We stayed three nights at the Fairfield Inn &amp; Suites and we should have known from the first night that the hotel's service was not up to par. A large party of children, teens, and not enough adults to supervise them all checked in late the first night of our stay. I found out they had ten rooms throughout the hotel. Unfortunately a youngster with a drum had the room above us and several teen-age girls with very loud voices who liked to knock the headboards against the wall and curse loudly were next door. Between the people above us who sounded as if they were moving furniture at 11:00 pm and the teenagers next door, we were miserable. I finally called down to the front desk about 12:30 am and the night clerk said he would contact their chaperone and ask them to quiet down. That worked...for about 20 minutes. The noise and laughing and screaming continued until about 2:45 am. Finally the girls quieted down but it made for an upsetting night, especially since we had an early and very busy day the next day. I spoke to the front desk personnel the next morning who apologized. I asked to speak to the manager but she was off property. I asked that she please call me. The remainder of our stay was uneventful. The hotel was nice enough. The rooms were fairly clean, although it would have been nice if housekeeping had replenished the bath products as they didn't last long. The breakfast was fairly good, although crowded and a bit messy. When we checked out two days later I still hadn't heard from the manager. The lady that checked me out assured me the manager would call to discuss my dissatisfaction with the first night of our stay. That was nearly 10 days ago and I haven't heard a word. So I must conclude they don't much care about the experience of their guests. I'm a frequent guests at Marriott properties and usually have positive experiences. It was a shame this one was in the minority. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r489893610-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>489893610</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>Clean, Updated, Comfortable and Friendly Inn, in a great suburban Denver location</t>
+  </si>
+  <si>
+    <t>Greeted by friendly Franki for an early check-in, my Lifetime Platinum Elite status was acknowledged and recognized with an instant upgrade to a comfortable King Suite.   Our 2 nite stay was uneventful and therefore perfect!    Breakfast buffet was healthy and well supplied, even enjoyed FRESH STRAWBERRIES one morning.  (Keep the FRESH FRUITS coming, Marriott --- forget the Sysco frozen, thx!   :-))   Marriott beds cannot be beat, and get one for your home if you ever have the opportunity.   If there were ANY suggestions for improvement, we would offer that staff might not empty trash right below our top-floor window at 4:45 am on a Sunday morning.  Ugh.    Thank you all, we'll be back when visiting the area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Greeted by friendly Franki for an early check-in, my Lifetime Platinum Elite status was acknowledged and recognized with an instant upgrade to a comfortable King Suite.   Our 2 nite stay was uneventful and therefore perfect!    Breakfast buffet was healthy and well supplied, even enjoyed FRESH STRAWBERRIES one morning.  (Keep the FRESH FRUITS coming, Marriott --- forget the Sysco frozen, thx!   :-))   Marriott beds cannot be beat, and get one for your home if you ever have the opportunity.   If there were ANY suggestions for improvement, we would offer that staff might not empty trash right below our top-floor window at 4:45 am on a Sunday morning.  Ugh.    Thank you all, we'll be back when visiting the area again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r489892882-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
     <t>489892882</t>
   </si>
   <si>
-    <t>06/02/2017</t>
-  </si>
-  <si>
     <t>Clean and Comfortable</t>
   </si>
   <si>
     <t>We just needed a place to stay for the night near Boulder, and this fit the bill. Despite the holiday weekend (Memorial Day), this hotel did not raise the prices like many of the other hotels in the area - which is why we booked this place in particular. The room itself was spacious and clean, with a comfortable bed. We did not utilize the pool, but it had a nice indoor pool and some outdoor patio seating.  Breakfast was included and had a nice variety of choices. It was about 30 minutes from downtown Boulder by car - but it was also near a Park and Ride , so there was also good access to public transit.MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>We just needed a place to stay for the night near Boulder, and this fit the bill. Despite the holiday weekend (Memorial Day), this hotel did not raise the prices like many of the other hotels in the area - which is why we booked this place in particular. The room itself was spacious and clean, with a comfortable bed. We did not utilize the pool, but it had a nice indoor pool and some outdoor patio seating.  Breakfast was included and had a nice variety of choices. It was about 30 minutes from downtown Boulder by car - but it was also near a Park and Ride , so there was also good access to public transit.More</t>
   </si>
   <si>
@@ -501,6 +773,42 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r449258471-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>449258471</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>good place to stay just off I-25</t>
+  </si>
+  <si>
+    <t>Making a road trip through Colorado, looked for a place to stay on the North side of Denver to avoid the traffic, and this place in Westminster fit the bill.  Easy to hop off I-25, lots of dining nearby.  They were undergoing some renovation while we were there, but never heard them, only saw the truck unloading when we were leaving.  Rooms were standard.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r415397836-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>415397836</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Clean motel and convenient to the area...</t>
+  </si>
+  <si>
+    <t>We stayed over Labor Day weekend and found it to be a very nice motel near I-25 with easy access to everything we needed.  The rooms were spacious and clean; the property off the road a bit and very quiet.  Staff was friendly and efficient.  We enjoyed our stay.  Good choice among the many in the area.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r412076375-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -564,6 +872,45 @@
     <t>This is a great hotel. The General Manager, Casey, is so awesome. She's the nicest person you'll ever meet. This hotel would be nothing without her. The property is very nice and the room exceeded all expectations. I'll definitely stay here again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r405339936-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>405339936</t>
+  </si>
+  <si>
+    <t>Slight Hiccup, but Made Up For</t>
+  </si>
+  <si>
+    <t>The alarm in the hotel went off at 4am... However, despite me not complaining to the front desk, the Manager still personally called to apologize. This, in my book, completely made up for the annoyance. Room was clean, well maintained and staff was very friendly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r405323870-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>405323870</t>
+  </si>
+  <si>
+    <t>3.5/5 Good visit for Elitches</t>
+  </si>
+  <si>
+    <t>Quick hits: 
+Pros: clean and modern feel, good breakfast, average room
+Cons: thin walls, distant to the point of unfriendly staff (front door debacle), price wasn't great for location, not much around for entertainment
+Overall I feel that other hotels in the area offer a little extra for the same price (we have stayed at 2 others very nearby). This location is one where you will be driving to shop, visit a theme park, sports event etc, so I don't feel the price savings was enough to not have stayed closer to our destination or stay at one of the other hotels. 
+When I arrived it was late (11:00 p.m.) and they require a key to open the front door.  As I was checking in I did not have a key yet.  The front desk woman pointed to the key card deal.  I used the intercom to tell her I was checking in, but the intercom didn't work.  She tried to reply to no avail.  I eventually walked to the window and yelled "I need to check in" before she opened it for me. No apologies or formalities she was just distant checking me in. 
+The hotel has a modern feel overall.  Everything we encountered was clean.  The bed was average. Not too soft or hard. The pillows were the typical super soft or super firm buffet. 
+The faucet dripped just enough to be annoying but not enough to interrupt...Quick hits: Pros: clean and modern feel, good breakfast, average roomCons: thin walls, distant to the point of unfriendly staff (front door debacle), price wasn't great for location, not much around for entertainmentOverall I feel that other hotels in the area offer a little extra for the same price (we have stayed at 2 others very nearby). This location is one where you will be driving to shop, visit a theme park, sports event etc, so I don't feel the price savings was enough to not have stayed closer to our destination or stay at one of the other hotels. When I arrived it was late (11:00 p.m.) and they require a key to open the front door.  As I was checking in I did not have a key yet.  The front desk woman pointed to the key card deal.  I used the intercom to tell her I was checking in, but the intercom didn't work.  She tried to reply to no avail.  I eventually walked to the window and yelled "I need to check in" before she opened it for me. No apologies or formalities she was just distant checking me in. The hotel has a modern feel overall.  Everything we encountered was clean.  The bed was average. Not too soft or hard. The pillows were the typical super soft or super firm buffet. The faucet dripped just enough to be annoying but not enough to interrupt sleep.The a/c unit was dated and was goofy with the temperature settings. The walls seemed incredibly thin, enough that we could hear conversations in the neighboring rooms and also hear the folks above us while getting ready in the shower area.The amenities were decent in the room, TV and cable kept the kids entertained.Breakfast and seating area was pretty big compared to some.  Distant breakfast staff. There was no water? Usual suspects of cereal, hard boiled eggs, scrambled, sausage, waffle maker, yogurt, oatmeal, coffee, 2 kinds of juices.We spent a ton of time at Elitches so we didn't go to the pool but we have been there before and it was large but obviously I can't say how the temperature was.I frequented the exercise area. It had an elliptical, 2 treadmills, 2 benches and one had a bench bar. The bar had 80 lbs loose weight and probably a 25 or 30 lb bar. The free weights were not what I expected based on photos that were posted here...grrr...but they had a pair of 25s and a pair of 35s.  I should have taken an updated picture, I apologize.  The weights worked for me but it may not work for a lot of people.  I was a little annoyed that they didn't have disinfectant wipes?  They did have towels and water fountain.  They had tvs and decent amount of room for a few people.Overall it wasn't a bad trip or hotel, just not something that pushed me up to the 4 star rating. Price and location seemed to outweigh the cost for me. Would stay here again if the other hotels nearby are full.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quick hits: 
+Pros: clean and modern feel, good breakfast, average room
+Cons: thin walls, distant to the point of unfriendly staff (front door debacle), price wasn't great for location, not much around for entertainment
+Overall I feel that other hotels in the area offer a little extra for the same price (we have stayed at 2 others very nearby). This location is one where you will be driving to shop, visit a theme park, sports event etc, so I don't feel the price savings was enough to not have stayed closer to our destination or stay at one of the other hotels. 
+When I arrived it was late (11:00 p.m.) and they require a key to open the front door.  As I was checking in I did not have a key yet.  The front desk woman pointed to the key card deal.  I used the intercom to tell her I was checking in, but the intercom didn't work.  She tried to reply to no avail.  I eventually walked to the window and yelled "I need to check in" before she opened it for me. No apologies or formalities she was just distant checking me in. 
+The hotel has a modern feel overall.  Everything we encountered was clean.  The bed was average. Not too soft or hard. The pillows were the typical super soft or super firm buffet. 
+The faucet dripped just enough to be annoying but not enough to interrupt...Quick hits: Pros: clean and modern feel, good breakfast, average roomCons: thin walls, distant to the point of unfriendly staff (front door debacle), price wasn't great for location, not much around for entertainmentOverall I feel that other hotels in the area offer a little extra for the same price (we have stayed at 2 others very nearby). This location is one where you will be driving to shop, visit a theme park, sports event etc, so I don't feel the price savings was enough to not have stayed closer to our destination or stay at one of the other hotels. When I arrived it was late (11:00 p.m.) and they require a key to open the front door.  As I was checking in I did not have a key yet.  The front desk woman pointed to the key card deal.  I used the intercom to tell her I was checking in, but the intercom didn't work.  She tried to reply to no avail.  I eventually walked to the window and yelled "I need to check in" before she opened it for me. No apologies or formalities she was just distant checking me in. The hotel has a modern feel overall.  Everything we encountered was clean.  The bed was average. Not too soft or hard. The pillows were the typical super soft or super firm buffet. The faucet dripped just enough to be annoying but not enough to interrupt sleep.The a/c unit was dated and was goofy with the temperature settings. The walls seemed incredibly thin, enough that we could hear conversations in the neighboring rooms and also hear the folks above us while getting ready in the shower area.The amenities were decent in the room, TV and cable kept the kids entertained.Breakfast and seating area was pretty big compared to some.  Distant breakfast staff. There was no water? Usual suspects of cereal, hard boiled eggs, scrambled, sausage, waffle maker, yogurt, oatmeal, coffee, 2 kinds of juices.We spent a ton of time at Elitches so we didn't go to the pool but we have been there before and it was large but obviously I can't say how the temperature was.I frequented the exercise area. It had an elliptical, 2 treadmills, 2 benches and one had a bench bar. The bar had 80 lbs loose weight and probably a 25 or 30 lb bar. The free weights were not what I expected based on photos that were posted here...grrr...but they had a pair of 25s and a pair of 35s.  I should have taken an updated picture, I apologize.  The weights worked for me but it may not work for a lot of people.  I was a little annoyed that they didn't have disinfectant wipes?  They did have towels and water fountain.  They had tvs and decent amount of room for a few people.Overall it wasn't a bad trip or hotel, just not something that pushed me up to the 4 star rating. Price and location seemed to outweigh the cost for me. Would stay here again if the other hotels nearby are full.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r405046507-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -621,6 +968,42 @@
     <t xml:space="preserve">Had a wonderful evening here. Hotel was clean and comfortable. Loved the pool as well. Hotel staff was very friendly and helpful as well. We really enjoyed our stay. I would recommend this hotel amd would definitely stay again. I normally stay at the Holiday Inns but this could turn me into a repeat customer for sure. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r372348114-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>372348114</t>
+  </si>
+  <si>
+    <t>05/12/2016</t>
+  </si>
+  <si>
+    <t>Good place to stay!</t>
+  </si>
+  <si>
+    <t>This hotel is really a nice place!  I'll start with the bad ... the bed was pretty uncomfortable and there was a stain on the bathmat and on one towel.  Here's the good - I only stayed one night so didn't use the pool or workout center, but it has both.  The staff I encountered were all friendly!  The hotel is really clean!  The breakfast buffet was excellent!  There were eggs, bacon, bagels, toast, fruit, yogurt, waffles ... I did have the eggs and bacon and they were yummy!</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r371607362-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>371607362</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>It was a pleasant experience at a very reasonable price. Rooms were clean and spacious enough. Indoor pool was a nice surprise. Breakfast was included with basic eggs, sausage and make your own waffle along with continental breakfast options. Staff was friendly. I would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r366999635-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -636,9 +1019,6 @@
     <t>We stayed for a one night get away with our two boys.  We wanted something in the North Metro area that had a pool for the kids.  The price was good (we paid with points) and the location was great.  Tons of retail and restaurant options nearby.  The rooms and public space we all clean and kept up.  The pool and whirlpool were nice and we saw a maintenance man checking the chemical and water levels.  It was nice to know they stay on top of that.  The front desk staff quickly brought fresh pool towels when we alerted them that they were out.The room was clean and nicely appointed.  Bedding was fresh with several pillow options.  There were extra outlets which is great for charging lots of devices etc.  The free breakfast was decent with eggs and bacon etc in addition to the usual continental fare.With good rooms and great service we will be back.MoreShow less</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>We stayed for a one night get away with our two boys.  We wanted something in the North Metro area that had a pool for the kids.  The price was good (we paid with points) and the location was great.  Tons of retail and restaurant options nearby.  The rooms and public space we all clean and kept up.  The pool and whirlpool were nice and we saw a maintenance man checking the chemical and water levels.  It was nice to know they stay on top of that.  The front desk staff quickly brought fresh pool towels when we alerted them that they were out.The room was clean and nicely appointed.  Bedding was fresh with several pillow options.  There were extra outlets which is great for charging lots of devices etc.  The free breakfast was decent with eggs and bacon etc in addition to the usual continental fare.With good rooms and great service we will be back.More</t>
   </si>
   <si>
@@ -693,6 +1073,42 @@
     <t>I stayed in this hotel for one night in September 2015 while in the area for a meeting; this is a typical Fairfield Inn; the room was large, clean, fairly modern decor.  Excellent selection of cable television channels.  Complimentary breakfast was included, but wasn't very good (scrambled eggs had water in them and were lukewarm).  The location is excellent with a number of solid dining options nearby.  As far as whether I would return - a definite Maybe...More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r291238674-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>291238674</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>frustration</t>
+  </si>
+  <si>
+    <t>It was a nice room, and everything was fine, but it was a frustrating experience with the carts in the morning. We sent our two kids who are older teens to get the carts, and they were told they were being used. This was at 8:45 a.m. However, since I had been on a walk early in the morning, I had seen two on the third floor, sitting idle, at 6 a.m. I assume they had been there overnight. So. after being told the carts were out, I checked the third floor, and there both  carts were. So, if you're told "the carts are being used" at any hotel, just know that that is not always the case! I'm glad I checked. we could have been waiting forever.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>It was a nice room, and everything was fine, but it was a frustrating experience with the carts in the morning. We sent our two kids who are older teens to get the carts, and they were told they were being used. This was at 8:45 a.m. However, since I had been on a walk early in the morning, I had seen two on the third floor, sitting idle, at 6 a.m. I assume they had been there overnight. So. after being told the carts were out, I checked the third floor, and there both  carts were. So, if you're told "the carts are being used" at any hotel, just know that that is not always the case! I'm glad I checked. we could have been waiting forever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r280912417-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>280912417</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Typical Fairfield</t>
+  </si>
+  <si>
+    <t>Personally, I don't care for the Fairfield brand, but this is where my group wanted to stay for a business trip.The rooms are plain, beds are average, and the breakfast bar is so so.  (Like I said - I don't care for this brand.)On the plus side, this hotel is in a great location for the work we were doing, and is conveniently located near several restuarant and shops.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r278365911-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -708,9 +1124,6 @@
     <t>This particular Marriott property is nearby to almost everything you'd need. The staff was great and the room was very clean. No issues, except a missing TV remote the the front desk quickly replaced.</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r277661410-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -744,6 +1157,48 @@
     <t xml:space="preserve">We stayed here as a couple for three weeks while our home was being updated.   I travel a lot for work (our entire stay was covered with points) and found this hotel to be just fine for the number of stars and location. We were upgraded to a king suite room (end room) and requested a first floor room. We were next to the guest laundry, which was convenient and quiet. You can walk to a number of restaurants and a few convenient stores, if you need to. Our room was clean when we asked and breakfast was the usual fare. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r274409253-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>274409253</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>Clean hotel that you would expect from this chain. Room was clean and looked updated. Free Wifi and parking was a plus. Dish network for cable was good. I found walls to be little thin, I could hear my neighbor's TV and them talking/walking. Thankfully guys next door were quiet so it didn't bother me much.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r273976475-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>273976475</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>Basic but clean</t>
+  </si>
+  <si>
+    <t>I've never stayed at a different Fairfield Inn so I have nothing to compare it with.  I have stayed at many different Marriott's but never a Fairfield so basic may be how they all are. I will say that it was very clean and the staff was very accommodating and friendly.  I have no complaints regarding the hotel or stay.  Would I recommend it, yes I would.  It was quiet, the beds were comfortable.  The breakfast was very good also.  I only stayed one night this trip as I had a few more destinations and hotels to go to.MoreShow less</t>
+  </si>
+  <si>
+    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded May 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2015</t>
+  </si>
+  <si>
+    <t>I've never stayed at a different Fairfield Inn so I have nothing to compare it with.  I have stayed at many different Marriott's but never a Fairfield so basic may be how they all are. I will say that it was very clean and the staff was very accommodating and friendly.  I have no complaints regarding the hotel or stay.  Would I recommend it, yes I would.  It was quiet, the beds were comfortable.  The breakfast was very good also.  I only stayed one night this trip as I had a few more destinations and hotels to go to.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r273349242-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -762,12 +1217,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded May 24, 2015</t>
-  </si>
-  <si>
-    <t>Responded May 24, 2015</t>
-  </si>
-  <si>
     <t>Hotel is OK, Staff were OK, Room was Ok ... The room was old and grubby not the cleanest room... In my opinion there are better hotels in the area. I am actually a Marriot Member most dissapointing was none of my requests of room type and location were met.Pick another hotel if your planning a trip!More</t>
   </si>
   <si>
@@ -819,6 +1268,48 @@
     <t>Stayed at this location last week. Second morning of stay noticed bed bugs in bed. Alerted management who stated this has been an ongoing problem. Had bite marks on feet and legs. Notified Tri County Health Department about incident. Contacted management again, took 2 days to get a call back. Result of this trip: out $120 for doctors visit, about $750 in contaminated clothes and a weekend of a nervous wife worried if I brought them home. Never again will I stay here there are better and cleaner options in the area. Management assumed no responsibility and was more concerned with excuses than being helpful.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r222664113-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>222664113</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>We chose this hotel because of it's central location, near some events we were attending in the Thornton area. While there is nothing "special" about the hotel, it offers a quiet, clean, comfortable room, friendly staff, and a much better breakfast than we expected, with hot items as well as the usual cereal and toast. Easy on and off I-25, lots of restaurants and stuff are in the area. It's a fast zip across 120th to DIA.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r220372425-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>220372425</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smoke alarm made a few flaws noticeable </t>
+  </si>
+  <si>
+    <t>The room was nice, although a refrigerator in the room would have been nice. The worst part of our one night stay was being awoken at 7 am by the smoke alarm (after having part of the family up sick during the night). We went outside only to find that the door nearest our room was VERY difficult to open. Would have been a problem in a real fire. As we stood outside, another guest told us it was a false alarm from somebody burning toast. I headed back in to the front desk, and heard the lady answering the phone and telling that to guests. Would have been nice of them to tell those who were outside. I did relay my concerns to management and I hope they learn from this accidental fire drill. MoreShow less</t>
+  </si>
+  <si>
+    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2014</t>
+  </si>
+  <si>
+    <t>The room was nice, although a refrigerator in the room would have been nice. The worst part of our one night stay was being awoken at 7 am by the smoke alarm (after having part of the family up sick during the night). We went outside only to find that the door nearest our room was VERY difficult to open. Would have been a problem in a real fire. As we stood outside, another guest told us it was a false alarm from somebody burning toast. I headed back in to the front desk, and heard the lady answering the phone and telling that to guests. Would have been nice of them to tell those who were outside. I did relay my concerns to management and I hope they learn from this accidental fire drill. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r217517822-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -867,6 +1358,39 @@
     <t>We stayed here for several nights &amp; we were very happy with it. Check in was a breeze. The hotel's decor looks fresh. The room was clean &amp; the beds comfy. I especially liked their pillows. The breakfast in the morning was pretty good. I would say better than a lot of continental breakfasts. My only complaint would be that there wasn't a fridge in the room.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r214895888-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>214895888</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Great hotel &amp; area</t>
+  </si>
+  <si>
+    <t>This was a perfect choice.  Plenty of restaurants &amp; shopping in the area for the family.  Went for a Rockies game, a fairly short drive to the stadium.  The staff was friendly, room was very clean.  Kids really enjoyed the pool after a long hot day.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r214513994-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>214513994</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay.</t>
+  </si>
+  <si>
+    <t>I stayed here for 1 night and i was very impressed. The manager and all his staffs were very friendly. Room was great and very clean. would definitely stay here again in the future. Very good breakfast. will recommend to all my colleague. Really enjoyed my stay.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r213620133-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -924,6 +1448,51 @@
     <t>We stay at the Fairfield whenever in Denver to visit family.  The rooms are always clean and quiet, the beds are comfortable and the front desk help is very friendly.  The breakfast has gotten better now with eggs, sausage and bacon.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r201045536-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>201045536</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>Great stay at the Fairfield</t>
+  </si>
+  <si>
+    <t>This Fairfield is an excellent choice for any traveler. I was greeted by a very nice employee upon entering the Fairfield. Upon receiving my room key, I went to the door of my room and heard a baby crying in another room. I returned to the front desk, where the employee was apologetic (I assured her, this was not her fault), and very accommodating to find another room for me. After returning from visiting my brother, I hear a baby crying next to my newly assigned room. I stayed in this room, and I could not hear a thing!Room accommodations are excellent. The bed is firm, nice HDTV, free internet access, and the room was very clean.In the morning, I went downstairs to have breakfast. This Fairfield has an excellent breakfast bar. Without question, I would stay at this Fairfield Inn again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>This Fairfield is an excellent choice for any traveler. I was greeted by a very nice employee upon entering the Fairfield. Upon receiving my room key, I went to the door of my room and heard a baby crying in another room. I returned to the front desk, where the employee was apologetic (I assured her, this was not her fault), and very accommodating to find another room for me. After returning from visiting my brother, I hear a baby crying next to my newly assigned room. I stayed in this room, and I could not hear a thing!Room accommodations are excellent. The bed is firm, nice HDTV, free internet access, and the room was very clean.In the morning, I went downstairs to have breakfast. This Fairfield has an excellent breakfast bar. Without question, I would stay at this Fairfield Inn again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r197151345-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>197151345</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>William H, Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded March 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2014</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r195137139-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -945,9 +1514,6 @@
     <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded March 13, 2014</t>
   </si>
   <si>
-    <t>Responded March 13, 2014</t>
-  </si>
-  <si>
     <t>This hotel was great and if needed we would stay there again. The staff was the friendliest staff I have ever encountered. From the front desk, manager, housekeeping and person who worked the continental breakfast. They were all so nice and helpful. Room was very clean and comfortable. Doors closed without that big loud sound most hotels seemed to have so even though the hotel had a large amount of occupants we weren't kept awake by doors opening and closing all night.More</t>
   </si>
   <si>
@@ -997,6 +1563,60 @@
   </si>
   <si>
     <t>We was actually staying here for work but ended up moving hotels because my very expensive phone had mysteriously went missing after the maids came in to clean. The staff didnt seem to care or consider coming up with a solution. I would definitely not leave anything valuable or personal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r181819789-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>181819789</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>Nothing Special</t>
+  </si>
+  <si>
+    <t>Fairfeild inn, you get what you expect, the hotel was small, clean and warm (Denvor was not however!!).  Small pool and gym but this is what you expect from a Fairfield.  Location was good and service was ok.  Rooms clean and food was acceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded October 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2013</t>
+  </si>
+  <si>
+    <t>Fairfeild inn, you get what you expect, the hotel was small, clean and warm (Denvor was not however!!).  Small pool and gym but this is what you expect from a Fairfield.  Location was good and service was ok.  Rooms clean and food was acceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r175694713-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>175694713</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Comfy and Clean</t>
+  </si>
+  <si>
+    <t>The people at the front desk were quick and helpful, especially with them dealing with another customer who was having some issues they moved everyone else right along.  There was only one elevator in the  middle which was kind of noisy and scary to the little one.  The room was extremely clean and we all had really good nights rest.  The breakfast was really good and quite the variety of things compared to other places.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded September 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2013</t>
+  </si>
+  <si>
+    <t>The people at the front desk were quick and helpful, especially with them dealing with another customer who was having some issues they moved everyone else right along.  There was only one elevator in the  middle which was kind of noisy and scary to the little one.  The room was extremely clean and we all had really good nights rest.  The breakfast was really good and quite the variety of things compared to other places.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r175624825-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
@@ -1067,21 +1687,45 @@
     <t>168402694</t>
   </si>
   <si>
-    <t>Very nice stay</t>
-  </si>
-  <si>
     <t>Stayed at the Fairfield Inn in Westminster, Colorado and was very pleased with the experience.  The room was clean and well appointed.  The breakfast is included in your room rate and was great!  The hotel staff was very welcoming and we will definitely stay here again when we are back in the area.  We walked across the street and had a delicious dinner at the Perkins restaurant.  Not expensive and lots of food.  The location is perfect for sightseeing in the Denver and Cheyenne areas.MoreShow less</t>
   </si>
   <si>
-    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded October 24, 2013</t>
-  </si>
-  <si>
-    <t>Responded October 24, 2013</t>
-  </si>
-  <si>
     <t>Stayed at the Fairfield Inn in Westminster, Colorado and was very pleased with the experience.  The room was clean and well appointed.  The breakfast is included in your room rate and was great!  The hotel staff was very welcoming and we will definitely stay here again when we are back in the area.  We walked across the street and had a delicious dinner at the Perkins restaurant.  Not expensive and lots of food.  The location is perfect for sightseeing in the Denver and Cheyenne areas.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r167056049-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>167056049</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Convenient, quiet, friendly</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel with my daughter and her softball team and parents/coaches.  The hotel was filled with teenagers and parents and yet everything flowed smoothly.  The nights were quiet enough to sleep, the breakfast was very nice, and the hotel was convienient to Boulder and Denver.  We had a great time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r166603370-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>166603370</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>Good location, nice room, good staff.</t>
+  </si>
+  <si>
+    <t>I' stayed at this location on Jun16th for one night. Upon check-in I was greater very professionally. Being a Platinum member the hotel upgraded me into a suite, it was great.  The location is about 16 minutes outside of the city but if you're looking for a good room and hotel and you're on a budget, I recommend this hotel. The property was very clean.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r166398100-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -1139,6 +1783,48 @@
     <t>We stayed here 5 nights for our son's wedding.  First for 3 nights, then returned after the wedding in the mountains for 2 nights.   The room and service was good.  The eggs weren't so great at the breakfast bar but there were lots of others choices.  The staff was very friendly and helpful.  A complimentary copy of USA Today was available each weekday.  It was a good location for us to Broomfield, CO.  There is a good selection of restaurants nearby,  it is very convenient to I25 but is not noisy.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r158144266-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>158144266</t>
+  </si>
+  <si>
+    <t>04/18/2013</t>
+  </si>
+  <si>
+    <t>Gluten free breakfast and really helpful front desk staff</t>
+  </si>
+  <si>
+    <t>We stayed a night in the Westminster Fairfield Inn on April 11, 2013.  The lady at the front desk was very helpful showing us how to go online to find a phone number (we'd asked for a phone book because there was none in our room).  The room itself was sparkling clean, and the mattress was nice and firm.  But best of all, since my wife has Celiac's Disease and must eat gluten free, that had a number of gluten-free items including fresh fruit, bacon, and eggs.  Eggs are NOT always gluten-free in large motels which offer hot breakfasts, since the eggs often come without shells in a cardboard box, but often have flour or food starch added tomake them fluffier when fried.  The breakfast cook got us the box and showed us that it was totally gluten-free.  We would plan to stay at this motel again since my nephew lives nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded August 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2013</t>
+  </si>
+  <si>
+    <t>We stayed a night in the Westminster Fairfield Inn on April 11, 2013.  The lady at the front desk was very helpful showing us how to go online to find a phone number (we'd asked for a phone book because there was none in our room).  The room itself was sparkling clean, and the mattress was nice and firm.  But best of all, since my wife has Celiac's Disease and must eat gluten free, that had a number of gluten-free items including fresh fruit, bacon, and eggs.  Eggs are NOT always gluten-free in large motels which offer hot breakfasts, since the eggs often come without shells in a cardboard box, but often have flour or food starch added tomake them fluffier when fried.  The breakfast cook got us the box and showed us that it was totally gluten-free.  We would plan to stay at this motel again since my nephew lives nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r157012302-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>157012302</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Excellent Value</t>
+  </si>
+  <si>
+    <t>This is an excellent hotel for the budget traveler. The staff is very friendly, making sure I knew their names--and that they knew mine. The free breakfast was consistently terrific during my 8-day stay. The eggs and bacon were always hot (rare for these free breakfasts), and there was a wide variety of choices, including whole fruit. The room was quiet and clean. There is a modest pool and an exercise room, free internet in the room, and a great weekly rate.  You won't get room service and other upscale amenities. But it is within walking distance of several restaurants and less than a block from a major bus terminal, including the Skyride bus that gets you to the airport in 30 minutes.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is an excellent hotel for the budget traveler. The staff is very friendly, making sure I knew their names--and that they knew mine. The free breakfast was consistently terrific during my 8-day stay. The eggs and bacon were always hot (rare for these free breakfasts), and there was a wide variety of choices, including whole fruit. The room was quiet and clean. There is a modest pool and an exercise room, free internet in the room, and a great weekly rate.  You won't get room service and other upscale amenities. But it is within walking distance of several restaurants and less than a block from a major bus terminal, including the Skyride bus that gets you to the airport in 30 minutes.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r149960073-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -1157,12 +1843,6 @@
     <t>January 2013</t>
   </si>
   <si>
-    <t>William H, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded August 9, 2013</t>
-  </si>
-  <si>
-    <t>Responded August 9, 2013</t>
-  </si>
-  <si>
     <t>I stayed here in December 2012, in a room on the second floor. The room was quiet and warm. The pool was cold but bearable.I stayed here again in January 2013 and got a room on the ground floor. This was a cold, draughty room. It was next to the fitness center and near to the breakfast room. Nights were disturbed by banging of doors, the loud tv over the treadmills, people yelling at their kids and just general people traffic. The pool was out of order 'until further notice'. This is a good value place, near to the highway, with good access to Denver and Boulder and within walking distance to two Starbucks. Internet access seemed fast and reliable. Make sure you get a room upstairs, though.More</t>
   </si>
   <si>
@@ -1205,6 +1885,51 @@
     <t>Stay in north Denver a lot due to daughters gymnastics, first time at this hotel. Has easy access to major roads and the areas we need to get to. Hotel was clean and well maintained, pool and spa area was very nice. Breakfast was basic hotel stuff but area was clean and well stocked. Staff was great, daughters meet ran long and they were happy to give a late check out. Seems to be a weekday business hotel as the weekend days did not seem busy so was very quite. Price was well within reason for the area and was one of the nicer hotels for that area of Denver. Will stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r141009539-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>141009539</t>
+  </si>
+  <si>
+    <t>09/23/2012</t>
+  </si>
+  <si>
+    <t>Nice respite after mountain trip</t>
+  </si>
+  <si>
+    <t>One of the nicer Fairfield Inns we have stayed. I especially appreciated the smile and welcoming attitude of Alea at the front desk the evening we arrived. This motel is on east side of Denver making it easy to get on Interstate back to Nebraska.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r137205290-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>137205290</t>
+  </si>
+  <si>
+    <t>08/14/2012</t>
+  </si>
+  <si>
+    <t>a clean and friendly place to stay</t>
+  </si>
+  <si>
+    <t>Unlike the Fairfield Inn &amp; Suites in Gillette, Wyo., this place was very clean.  The staff was friendly and accommodating to our needs.  Stayed at this place because it was close to Waterworld.  Breakfast was ok. Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>ffidenvern, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded September 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2012</t>
+  </si>
+  <si>
+    <t>Unlike the Fairfield Inn &amp; Suites in Gillette, Wyo., this place was very clean.  The staff was friendly and accommodating to our needs.  Stayed at this place because it was close to Waterworld.  Breakfast was ok. Would stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r135894669-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -1223,12 +1948,6 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>ffidenvern, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded September 10, 2012</t>
-  </si>
-  <si>
-    <t>Responded September 10, 2012</t>
-  </si>
-  <si>
     <t>The Fairfield Inn (Westminster, CO) is very clean. However, there were some "small" things that bothered me. The swimming pool had just been cleaned; it wasn't very clear so to me it didn't look clean! The light above the sink in the bathroom didn't work. The positives: cleanliness of the room and friendliness of the staff. Also, I thought the price was a little on the expensive side.More</t>
   </si>
   <si>
@@ -1268,6 +1987,45 @@
     <t>It's a pretty standard lower cost motel. The rooms were clean with fairly new appointments. A/C worked great, wifi is free which is always a nice bonus to a lower cost motel. Hallway and elevator floors could have been a tad bit cleaner, but I wasn't put off by this. Free continental breakfast was fairly standard and met my expectations. Bath towels were thin, as others have stated. Bed was comfortable with very clean and comfortable bedding and pillows. Overall, nothing special about this motel, but also nothing negative either. "It was fine."More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r133527551-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>133527551</t>
+  </si>
+  <si>
+    <t>07/05/2012</t>
+  </si>
+  <si>
+    <t>Great hotel in a nice locations</t>
+  </si>
+  <si>
+    <t>My family stayed here for two days and this is a great hotel in a nice location with many nearby amenities.  The hotel rooms and lobby are modern and clean.  The full hot breakfast was reasonably good.  The temperatures in the Denver area were particularly hot during our stay and the air conditoner worked very well.  The high speed Internet is fast and connects easily.  We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>My family stayed here for two days and this is a great hotel in a nice location with many nearby amenities.  The hotel rooms and lobby are modern and clean.  The full hot breakfast was reasonably good.  The temperatures in the Denver area were particularly hot during our stay and the air conditoner worked very well.  The high speed Internet is fast and connects easily.  We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r133295991-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>133295991</t>
+  </si>
+  <si>
+    <t>07/02/2012</t>
+  </si>
+  <si>
+    <t>Excellent 2 night stay</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 2 nights to attend a wedding in the Boulder area. The staff here is AMAZING!  I needed to keep putting something in the fridge and EVERYONE was so accomoding. I didn't get a single staff that would not help.  I agree with the previous revieweres, the bath towels seemed thin and old and need to be replaced, everything else was fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 2 nights to attend a wedding in the Boulder area. The staff here is AMAZING!  I needed to keep putting something in the fridge and EVERYONE was so accomoding. I didn't get a single staff that would not help.  I agree with the previous revieweres, the bath towels seemed thin and old and need to be replaced, everything else was fine.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r132150774-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -1331,6 +2089,54 @@
     <t>I stayed for 4 nights last week.  Price/Value is very good.  The internet kept going off and they claimed I was the only one having that problem but I'm not sure that was the case.  I think I was the only one that complained.  My room was at the end of the hall by the mechanical room so there was some noise and I think that may have been the problem with the internet interference.  The lady at the front desk was really friendly, the rooms were nice for this type of property.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r129863477-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>129863477</t>
+  </si>
+  <si>
+    <t>05/13/2012</t>
+  </si>
+  <si>
+    <t>Nice.</t>
+  </si>
+  <si>
+    <t>The hotel has been remodeled.  The beds and linens were comfortable.  The new shower heads felt awesome!  There is a frig, microwave and coffee pot in room.  Hair dryer.  The only downfall is the bathroom towels were like pool side towels.  They forgot to get new towels for the guest rooms I guess.  Front desk is welcoming however, we were there on bereavement discount.  The Thursday night man at the front desk charged us $20 more than the Friday night front desk girl did.  I guess if your going to grieve do it on the weekend and not during the week.  I think if they offer a bereavement rate it should apply no matter what day it is.  We were to busy to try breakfast there.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>The hotel has been remodeled.  The beds and linens were comfortable.  The new shower heads felt awesome!  There is a frig, microwave and coffee pot in room.  Hair dryer.  The only downfall is the bathroom towels were like pool side towels.  They forgot to get new towels for the guest rooms I guess.  Front desk is welcoming however, we were there on bereavement discount.  The Thursday night man at the front desk charged us $20 more than the Friday night front desk girl did.  I guess if your going to grieve do it on the weekend and not during the week.  I think if they offer a bereavement rate it should apply no matter what day it is.  We were to busy to try breakfast there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r126752339-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>126752339</t>
+  </si>
+  <si>
+    <t>03/27/2012</t>
+  </si>
+  <si>
+    <t>They did a great job considering the circumstances</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Fairfield Inn Denver North, for 4 nights Thur-Mon.  Three nights were perfect but one night Sat.,, there were hundreds of young soccer players staying there. The Fairfield did a good job trying to keep the youthful energetic folks in check, but it was still a tough night. My hats off to the staff for making the best of a challenging situation. I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>ffidenvern, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded March 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2012</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Fairfield Inn Denver North, for 4 nights Thur-Mon.  Three nights were perfect but one night Sat.,, there were hundreds of young soccer players staying there. The Fairfield did a good job trying to keep the youthful energetic folks in check, but it was still a tough night. My hats off to the staff for making the best of a challenging situation. I would stay there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r122599995-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -1391,6 +2197,48 @@
     <t>I had business in Westminster and found this Fairfield Inn's location very convenient.It is off of 120th Street and only a block away from I-25. The room was clean and provided all the basics. They have a breakfast buffet with several choices.The hotel is within walking distance of several restaurants.There is a small indoor pool.The staff was friendly and efficient.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r115232340-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>115232340</t>
+  </si>
+  <si>
+    <t>07/10/2011</t>
+  </si>
+  <si>
+    <t>Clean, close to I25, quiet and comfortable</t>
+  </si>
+  <si>
+    <t>Checked in and they had fresh cookies that we just missed! Lucky for us, front desk clerk Alea baked us a special batch! She rocks!Rooms were comfortable and clean. Breakfast was decent and better than just continental: quiche, do-it-yourself waffles, breakfast sandwiches, oatmeal, cereals, and the like.Pool is small and very warm inside when it's hot outside.Our room was right near the elevator but was pretty quiet. Plenty of free parking and restaurants nearby.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r98983110-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>98983110</t>
+  </si>
+  <si>
+    <t>03/05/2011</t>
+  </si>
+  <si>
+    <t>Comfortable Business hotel</t>
+  </si>
+  <si>
+    <t>Its about 45 mnst drive from the Airport Denver International airport. Checkin and checkout was professsionaly managed, staff was resposnive to needs, express checkout service. Comfortable room with all basic eminities - Ironing board etc.The only downside would be a limited breakfast spread.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>Charlotte707, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded March 16, 2011</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2011</t>
+  </si>
+  <si>
+    <t>Its about 45 mnst drive from the Airport Denver International airport. Checkin and checkout was professsionaly managed, staff was resposnive to needs, express checkout service. Comfortable room with all basic eminities - Ironing board etc.The only downside would be a limited breakfast spread.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r97622229-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -1406,15 +2254,6 @@
     <t>Cannot say enough about what a clean, lovely and comfy place this Fairfield Inn was last weekend!  The staff was very friendly and helpful.  The price was great!  We will definitely stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>February 2011</t>
-  </si>
-  <si>
-    <t>Charlotte707, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded March 16, 2011</t>
-  </si>
-  <si>
-    <t>Responded March 16, 2011</t>
-  </si>
-  <si>
     <t>Cannot say enough about what a clean, lovely and comfy place this Fairfield Inn was last weekend!  The staff was very friendly and helpful.  The price was great!  We will definitely stay here again.More</t>
   </si>
   <si>
@@ -1464,6 +2303,57 @@
   </si>
   <si>
     <t>My wife and I spent four nights here over Thanksgiving while we were visiting family. This hotel is very family friendly. The rooms and premises are very clean, the staff very friendly and the price is very reasonable. Also an excellent location near restaurants, shopping and the park and ride bus terminal.  We will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r47495399-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>47495399</t>
+  </si>
+  <si>
+    <t>10/22/2009</t>
+  </si>
+  <si>
+    <t>Polite and considerate staff.</t>
+  </si>
+  <si>
+    <t>Fairfield Inn was easily found with a Google map and visible from the main street.  There was easy freeway access and in-and-out access from the road.  The hotel staff were very friendly, accommodating and had good knowledge of the area.The room was clean and did not have any funky smells.  The bedding was clean and I liked the double-sheet setup (with a nice decorative "foot scarf") better than a bedspread over the top of the bed, which I would have removed completely anyway.The internet access was easy to use and when unsure of the hook-up, the support was easy to reach and easy to follow.The complimentary breakfast was comprised of quick and easy breakfast items such as yogurt, bagels, cereal, heat-and-eat breakfast sandwiches, but also included a waffle iron and batter so you could have fresh hot waffles.The indoor pool and spa were easily located and looked clean and inviting, though I did not get to use them this trip.Upon having noisy neighbor problems, the staff offered several solutions and the situation was resolved very satisfactorily.I would definitely stay at this hotel again and recommend this place to anyone wishing a friendly atmosphere, clean space, and good location.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>ffidenvern, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded November 23, 2009</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2009</t>
+  </si>
+  <si>
+    <t>Fairfield Inn was easily found with a Google map and visible from the main street.  There was easy freeway access and in-and-out access from the road.  The hotel staff were very friendly, accommodating and had good knowledge of the area.The room was clean and did not have any funky smells.  The bedding was clean and I liked the double-sheet setup (with a nice decorative "foot scarf") better than a bedspread over the top of the bed, which I would have removed completely anyway.The internet access was easy to use and when unsure of the hook-up, the support was easy to reach and easy to follow.The complimentary breakfast was comprised of quick and easy breakfast items such as yogurt, bagels, cereal, heat-and-eat breakfast sandwiches, but also included a waffle iron and batter so you could have fresh hot waffles.The indoor pool and spa were easily located and looked clean and inviting, though I did not get to use them this trip.Upon having noisy neighbor problems, the staff offered several solutions and the situation was resolved very satisfactorily.I would definitely stay at this hotel again and recommend this place to anyone wishing a friendly atmosphere, clean space, and good location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d223984-r6786139-Fairfield_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>6786139</t>
+  </si>
+  <si>
+    <t>02/12/2007</t>
+  </si>
+  <si>
+    <t>great location, clean and comfortable</t>
+  </si>
+  <si>
+    <t>I stayed here for work.  The room was comfortably furnished and the wi-fi access was pretty good.  The bed and pillows were very comfy which was great.  Good location - close to a lot of different restaurants.  Excellent value for what you get.  I would stay here again next time I'm in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>Charlotte707, General Manager at Fairfield Inn &amp; Suites Denver North/Westminster, responded to this reviewResponded February 11, 2010</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2010</t>
+  </si>
+  <si>
+    <t>I stayed here for work.  The room was comfortably furnished and the wi-fi access was pretty good.  The bed and pillows were very comfy which was great.  Good location - close to a lot of different restaurants.  Excellent value for what you get.  I would stay here again next time I'm in town.More</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +2888,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2059,13 +2949,13 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2077,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
         <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -2099,34 +2989,34 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>71</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2181,26 +3071,20 @@
         <v>79</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
         <v>80</v>
       </c>
-      <c r="O5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -2208,10 +3092,10 @@
         <v>81</v>
       </c>
       <c r="X5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s">
         <v>82</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -2227,34 +3111,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>85</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>86</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>87</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>88</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>80</v>
-      </c>
-      <c r="O6" t="s">
-        <v>63</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2265,10 +3149,14 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -2284,7 +3172,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2293,25 +3181,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2322,10 +3210,14 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -2341,7 +3233,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2350,25 +3242,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>97</v>
       </c>
-      <c r="J8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>101</v>
-      </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2379,10 +3271,14 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -2398,7 +3294,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2407,43 +3303,47 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -2459,7 +3359,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2468,22 +3368,26 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -2496,7 +3400,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
@@ -2512,7 +3416,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2521,49 +3425,49 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="X11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -2579,7 +3483,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2588,49 +3492,39 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>130</v>
-      </c>
-      <c r="X12" t="s">
-        <v>131</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
@@ -2646,7 +3540,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2655,25 +3549,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2684,14 +3578,10 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>139</v>
-      </c>
-      <c r="X13" t="s">
-        <v>140</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
@@ -2707,7 +3597,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2716,45 +3606,39 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O14" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
@@ -2794,21 +3678,17 @@
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="O15" t="s">
-        <v>95</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
@@ -2831,7 +3711,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2840,45 +3720,39 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
@@ -2894,7 +3768,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2903,45 +3777,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>168</v>
+      </c>
+      <c r="X17" t="s">
+        <v>169</v>
+      </c>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
@@ -2957,7 +3829,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2966,49 +3838,35 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="s">
-        <v>166</v>
-      </c>
-      <c r="O18" t="s">
-        <v>173</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>174</v>
-      </c>
-      <c r="X18" t="s">
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
         <v>175</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="19">
@@ -3024,48 +3882,58 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
         <v>177</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>178</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>179</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>180</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>181</v>
       </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>166</v>
-      </c>
       <c r="O19" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>182</v>
+      </c>
+      <c r="X19" t="s">
+        <v>183</v>
+      </c>
       <c r="Y19" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
@@ -3081,7 +3949,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3090,49 +3958,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>3</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>187</v>
-      </c>
-      <c r="X20" t="s">
-        <v>188</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
@@ -3148,7 +4006,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3157,47 +4015,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="O21" t="s">
-        <v>173</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="X21" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
@@ -3213,7 +4073,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3222,39 +4082,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>204</v>
+      </c>
+      <c r="X22" t="s">
+        <v>205</v>
+      </c>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
@@ -3270,7 +4140,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3279,45 +4149,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>213</v>
+      </c>
+      <c r="X23" t="s">
+        <v>214</v>
+      </c>
       <c r="Y23" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24">
@@ -3333,7 +4201,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3342,47 +4210,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="J24" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="K24" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
         <v>212</v>
       </c>
-      <c r="M24" t="n">
-        <v>3</v>
-      </c>
-      <c r="N24" t="s">
-        <v>213</v>
-      </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>3</v>
-      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>2</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="X24" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Y24" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
@@ -3398,7 +4262,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3407,47 +4271,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>222</v>
-      </c>
-      <c r="X25" t="s">
-        <v>223</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26">
@@ -3463,7 +4323,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3472,22 +4332,22 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" t="s">
         <v>226</v>
       </c>
-      <c r="J26" t="s">
-        <v>227</v>
-      </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s">
+        <v>234</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
         <v>229</v>
-      </c>
-      <c r="M26" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s">
-        <v>230</v>
       </c>
       <c r="O26" t="s">
         <v>53</v>
@@ -3495,9 +4355,11 @@
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>5</v>
@@ -3508,7 +4370,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27">
@@ -3524,7 +4386,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3533,39 +4395,43 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="J27" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
@@ -3581,7 +4447,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3590,35 +4456,45 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J28" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>246</v>
+      </c>
+      <c r="O28" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
       <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29">
@@ -3634,7 +4510,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3643,47 +4519,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="J29" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="K29" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>248</v>
-      </c>
-      <c r="X29" t="s">
-        <v>249</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30">
@@ -3699,7 +4571,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3708,43 +4580,45 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J30" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K30" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
         <v>257</v>
-      </c>
-      <c r="X30" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="31">
@@ -3760,19 +4634,19 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
         <v>260</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>261</v>
-      </c>
-      <c r="J31" t="s">
-        <v>253</v>
       </c>
       <c r="K31" t="s">
         <v>262</v>
@@ -3781,37 +4655,33 @@
         <v>263</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>264</v>
-      </c>
-      <c r="X31" t="s">
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
         <v>265</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="32">
@@ -3827,44 +4697,58 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
         <v>267</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>268</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>269</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>270</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>264</v>
+      </c>
+      <c r="O32" t="s">
         <v>271</v>
       </c>
-      <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="s"/>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
       <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>272</v>
+      </c>
+      <c r="X32" t="s">
+        <v>273</v>
+      </c>
       <c r="Y32" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33">
@@ -3880,7 +4764,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3889,25 +4773,25 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J33" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K33" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L33" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3921,7 +4805,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34">
@@ -3937,7 +4821,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3946,39 +4830,45 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J34" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K34" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L34" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="O34" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35">
@@ -3994,7 +4884,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4003,10 +4893,10 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J35" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K35" t="s">
         <v>286</v>
@@ -4015,37 +4905,27 @@
         <v>287</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="O35" t="s">
-        <v>95</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36">
@@ -4084,14 +4964,24 @@
       <c r="M36" t="n">
         <v>3</v>
       </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
+      <c r="N36" t="s">
+        <v>264</v>
+      </c>
+      <c r="O36" t="s">
+        <v>114</v>
+      </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
@@ -4139,37 +5029,35 @@
         <v>301</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>294</v>
+      </c>
+      <c r="X37" t="s">
+        <v>295</v>
+      </c>
       <c r="Y37" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38">
@@ -4185,7 +5073,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4194,53 +5082,39 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J38" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K38" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
+        <v>264</v>
+      </c>
+      <c r="O38" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
         <v>307</v>
-      </c>
-      <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
-      <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="s">
-        <v>308</v>
-      </c>
-      <c r="X38" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="39">
@@ -4256,48 +5130,54 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>309</v>
+      </c>
+      <c r="J39" t="s">
+        <v>310</v>
+      </c>
+      <c r="K39" t="s">
         <v>311</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="L39" t="s">
         <v>312</v>
       </c>
-      <c r="J39" t="s">
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
         <v>313</v>
       </c>
-      <c r="K39" t="s">
-        <v>314</v>
-      </c>
-      <c r="L39" t="s">
-        <v>315</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
+      <c r="O39" t="s">
+        <v>80</v>
+      </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>316</v>
-      </c>
-      <c r="X39" t="s">
-        <v>317</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40">
@@ -4313,58 +5193,48 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>314</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>315</v>
+      </c>
+      <c r="J40" t="s">
+        <v>316</v>
+      </c>
+      <c r="K40" t="s">
+        <v>317</v>
+      </c>
+      <c r="L40" t="s">
+        <v>318</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
         <v>319</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
-        <v>320</v>
-      </c>
-      <c r="J40" t="s">
-        <v>321</v>
-      </c>
-      <c r="K40" t="s">
-        <v>322</v>
-      </c>
-      <c r="L40" t="s">
-        <v>323</v>
-      </c>
-      <c r="M40" t="n">
-        <v>3</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+      <c r="O40" t="s">
+        <v>271</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>4</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>324</v>
-      </c>
-      <c r="X40" t="s">
-        <v>325</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41">
@@ -4380,7 +5250,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4389,51 +5259,45 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J41" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K41" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="P41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>333</v>
-      </c>
-      <c r="X41" t="s">
-        <v>334</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42">
@@ -4449,7 +5313,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4458,53 +5322,47 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="J42" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="K42" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="O42" t="s">
-        <v>173</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="X42" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="Y42" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43">
@@ -4520,7 +5378,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4529,53 +5387,47 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="J43" t="s">
+        <v>337</v>
+      </c>
+      <c r="K43" t="s">
         <v>338</v>
       </c>
-      <c r="K43" t="s">
-        <v>347</v>
-      </c>
       <c r="L43" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="O43" t="s">
-        <v>148</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="X43" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="Y43" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44">
@@ -4591,7 +5443,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4600,37 +5452,37 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="J44" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="K44" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L44" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
-      </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>348</v>
+      </c>
+      <c r="O44" t="s">
+        <v>80</v>
+      </c>
       <c r="P44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4638,7 +5490,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45">
@@ -4654,7 +5506,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4663,41 +5515,37 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="J45" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="K45" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4705,7 +5553,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46">
@@ -4721,7 +5569,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4730,53 +5578,43 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="J46" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K46" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L46" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="O46" t="s">
-        <v>148</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
         <v>5</v>
       </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>368</v>
-      </c>
-      <c r="X46" t="s">
-        <v>369</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47">
@@ -4792,7 +5630,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4801,53 +5639,39 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="J47" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="K47" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>3</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>4</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>377</v>
-      </c>
-      <c r="X47" t="s">
-        <v>378</v>
-      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48">
@@ -4863,7 +5687,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4872,45 +5696,35 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="J48" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="K48" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="L48" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s"/>
       <c r="O48" t="s"/>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49">
@@ -4926,7 +5740,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4935,41 +5749,37 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="J49" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="K49" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="L49" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="O49" t="s">
         <v>53</v>
       </c>
-      <c r="P49" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>4</v>
-      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -4977,7 +5787,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50">
@@ -4993,7 +5803,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5002,53 +5812,49 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="J50" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="K50" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="L50" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="O50" t="s">
-        <v>148</v>
-      </c>
-      <c r="P50" t="n">
-        <v>2</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R50" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="X50" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="Y50" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51">
@@ -5064,7 +5870,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5073,53 +5879,47 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="J51" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="K51" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="L51" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
       </c>
-      <c r="Q51" t="n">
-        <v>4</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="X51" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="Y51" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52">
@@ -5135,7 +5935,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5144,53 +5944,43 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="J52" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="K52" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="L52" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
+        <v>397</v>
+      </c>
+      <c r="O52" t="s">
+        <v>71</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
         <v>398</v>
       </c>
-      <c r="O52" t="s">
-        <v>63</v>
-      </c>
-      <c r="P52" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>3</v>
-      </c>
-      <c r="R52" t="n">
-        <v>4</v>
-      </c>
-      <c r="S52" t="n">
-        <v>3</v>
-      </c>
-      <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>5</v>
-      </c>
-      <c r="V52" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>399</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>400</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="53">
@@ -5206,7 +5996,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5215,53 +6005,49 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="J53" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="K53" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="L53" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="O53" t="s">
-        <v>148</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P53" t="s"/>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="X53" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="Y53" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54">
@@ -5277,7 +6063,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5286,38 +6072,32 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="J54" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="K54" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="L54" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
+        <v>271</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
       </c>
-      <c r="Q54" t="n">
-        <v>4</v>
-      </c>
-      <c r="R54" t="n">
-        <v>4</v>
-      </c>
-      <c r="S54" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
         <v>4</v>
@@ -5325,14 +6105,10 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s">
-        <v>420</v>
-      </c>
-      <c r="X54" t="s">
-        <v>421</v>
-      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="55">
@@ -5348,7 +6124,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5357,53 +6133,39 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="J55" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="K55" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
-      </c>
-      <c r="N55" t="s">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
         <v>419</v>
       </c>
-      <c r="O55" t="s">
-        <v>63</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>4</v>
-      </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
-      <c r="S55" t="n">
-        <v>4</v>
-      </c>
-      <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>5</v>
-      </c>
-      <c r="V55" t="n">
-        <v>0</v>
-      </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>420</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>421</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="56">
@@ -5419,7 +6181,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5428,53 +6190,35 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="J56" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="K56" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="L56" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
-      </c>
-      <c r="N56" t="s">
-        <v>440</v>
-      </c>
-      <c r="O56" t="s">
-        <v>63</v>
-      </c>
-      <c r="P56" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>3</v>
-      </c>
-      <c r="R56" t="n">
-        <v>3</v>
-      </c>
-      <c r="S56" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>4</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>441</v>
-      </c>
-      <c r="X56" t="s">
-        <v>442</v>
-      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57">
@@ -5490,7 +6234,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5499,45 +6243,39 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="J57" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="K57" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="L57" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
       <c r="R57" t="s"/>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>4</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58">
@@ -5553,7 +6291,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5562,45 +6300,39 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="J58" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="K58" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="L58" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="O58" t="s">
-        <v>95</v>
-      </c>
-      <c r="P58" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
       <c r="R58" t="s"/>
-      <c r="S58" t="n">
-        <v>4</v>
-      </c>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>4</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
     </row>
     <row r="59">
@@ -5616,7 +6348,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5625,38 +6357,32 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="J59" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="K59" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="L59" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="O59" t="s">
-        <v>148</v>
-      </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
       <c r="R59" t="n">
-        <v>5</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
         <v>5</v>
@@ -5664,14 +6390,10 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s">
-        <v>461</v>
-      </c>
-      <c r="X59" t="s">
-        <v>462</v>
-      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60">
@@ -5687,7 +6409,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5696,53 +6418,39 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="J60" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="K60" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="L60" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="O60" t="s">
-        <v>63</v>
-      </c>
-      <c r="P60" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>5</v>
-      </c>
-      <c r="S60" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="n">
-        <v>5</v>
-      </c>
+      <c r="U60" t="s"/>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s">
-        <v>461</v>
-      </c>
-      <c r="X60" t="s">
-        <v>462</v>
-      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61">
@@ -5758,7 +6466,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5767,25 +6475,25 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="J61" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="K61" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="L61" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="O61" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5794,26 +6502,3034 @@
         <v>5</v>
       </c>
       <c r="R61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S61" t="n">
         <v>5</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s">
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>455</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>456</v>
+      </c>
+      <c r="J62" t="s">
+        <v>457</v>
+      </c>
+      <c r="K62" t="s">
+        <v>458</v>
+      </c>
+      <c r="L62" t="s">
+        <v>459</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>460</v>
+      </c>
+      <c r="X62" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>463</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>464</v>
+      </c>
+      <c r="J63" t="s">
+        <v>465</v>
+      </c>
+      <c r="K63" t="s">
+        <v>466</v>
+      </c>
+      <c r="L63" t="s">
+        <v>467</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>454</v>
+      </c>
+      <c r="O63" t="s">
+        <v>80</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>468</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>469</v>
+      </c>
+      <c r="J64" t="s">
+        <v>470</v>
+      </c>
+      <c r="K64" t="s">
+        <v>471</v>
+      </c>
+      <c r="L64" t="s">
+        <v>472</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>473</v>
+      </c>
+      <c r="O64" t="s">
+        <v>114</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>475</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>476</v>
+      </c>
+      <c r="J65" t="s">
         <v>477</v>
       </c>
-      <c r="X61" t="s">
+      <c r="K65" t="s"/>
+      <c r="L65" t="s">
         <v>478</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
         <v>479</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>480</v>
+      </c>
+      <c r="X65" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>483</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>484</v>
+      </c>
+      <c r="J66" t="s">
+        <v>485</v>
+      </c>
+      <c r="K66" t="s">
+        <v>486</v>
+      </c>
+      <c r="L66" t="s">
+        <v>487</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>488</v>
+      </c>
+      <c r="O66" t="s">
+        <v>80</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>489</v>
+      </c>
+      <c r="X66" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>491</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>492</v>
+      </c>
+      <c r="J67" t="s">
+        <v>493</v>
+      </c>
+      <c r="K67" t="s">
+        <v>494</v>
+      </c>
+      <c r="L67" t="s">
+        <v>495</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>496</v>
+      </c>
+      <c r="X67" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>499</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>500</v>
+      </c>
+      <c r="J68" t="s">
+        <v>501</v>
+      </c>
+      <c r="K68" t="s">
+        <v>502</v>
+      </c>
+      <c r="L68" t="s">
+        <v>503</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>504</v>
+      </c>
+      <c r="X68" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>507</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>508</v>
+      </c>
+      <c r="J69" t="s">
+        <v>509</v>
+      </c>
+      <c r="K69" t="s">
+        <v>510</v>
+      </c>
+      <c r="L69" t="s">
+        <v>511</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>512</v>
+      </c>
+      <c r="O69" t="s">
+        <v>71</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>513</v>
+      </c>
+      <c r="X69" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>516</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>517</v>
+      </c>
+      <c r="J70" t="s">
+        <v>518</v>
+      </c>
+      <c r="K70" t="s">
+        <v>519</v>
+      </c>
+      <c r="L70" t="s">
+        <v>520</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>521</v>
+      </c>
+      <c r="O70" t="s">
+        <v>80</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>522</v>
+      </c>
+      <c r="X70" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>525</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>526</v>
+      </c>
+      <c r="J71" t="s">
+        <v>527</v>
+      </c>
+      <c r="K71" t="s">
+        <v>528</v>
+      </c>
+      <c r="L71" t="s">
+        <v>529</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>530</v>
+      </c>
+      <c r="O71" t="s">
+        <v>80</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>531</v>
+      </c>
+      <c r="X71" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>534</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>535</v>
+      </c>
+      <c r="J72" t="s">
+        <v>536</v>
+      </c>
+      <c r="K72" t="s">
+        <v>537</v>
+      </c>
+      <c r="L72" t="s">
+        <v>538</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>539</v>
+      </c>
+      <c r="O72" t="s">
+        <v>271</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>540</v>
+      </c>
+      <c r="X72" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>543</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>544</v>
+      </c>
+      <c r="J73" t="s">
+        <v>536</v>
+      </c>
+      <c r="K73" t="s">
+        <v>179</v>
+      </c>
+      <c r="L73" t="s">
+        <v>545</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>539</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>513</v>
+      </c>
+      <c r="X73" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>547</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>548</v>
+      </c>
+      <c r="J74" t="s">
+        <v>549</v>
+      </c>
+      <c r="K74" t="s">
+        <v>550</v>
+      </c>
+      <c r="L74" t="s">
+        <v>551</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>539</v>
+      </c>
+      <c r="O74" t="s">
+        <v>271</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>552</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>553</v>
+      </c>
+      <c r="J75" t="s">
+        <v>554</v>
+      </c>
+      <c r="K75" t="s">
+        <v>555</v>
+      </c>
+      <c r="L75" t="s">
+        <v>556</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>557</v>
+      </c>
+      <c r="O75" t="s">
+        <v>71</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>558</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>559</v>
+      </c>
+      <c r="J76" t="s">
+        <v>560</v>
+      </c>
+      <c r="K76" t="s">
+        <v>561</v>
+      </c>
+      <c r="L76" t="s">
+        <v>562</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>563</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>564</v>
+      </c>
+      <c r="J77" t="s">
+        <v>565</v>
+      </c>
+      <c r="K77" t="s">
+        <v>566</v>
+      </c>
+      <c r="L77" t="s">
+        <v>567</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>568</v>
+      </c>
+      <c r="O77" t="s">
+        <v>80</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>569</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>570</v>
+      </c>
+      <c r="J78" t="s">
+        <v>571</v>
+      </c>
+      <c r="K78" t="s">
+        <v>572</v>
+      </c>
+      <c r="L78" t="s">
+        <v>573</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>568</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>574</v>
+      </c>
+      <c r="X78" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>577</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>578</v>
+      </c>
+      <c r="J79" t="s">
+        <v>579</v>
+      </c>
+      <c r="K79" t="s">
+        <v>580</v>
+      </c>
+      <c r="L79" t="s">
+        <v>581</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>568</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>582</v>
+      </c>
+      <c r="X79" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>585</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>586</v>
+      </c>
+      <c r="J80" t="s">
+        <v>587</v>
+      </c>
+      <c r="K80" t="s">
+        <v>588</v>
+      </c>
+      <c r="L80" t="s">
+        <v>589</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>568</v>
+      </c>
+      <c r="O80" t="s">
+        <v>114</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>591</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>592</v>
+      </c>
+      <c r="J81" t="s">
+        <v>593</v>
+      </c>
+      <c r="K81" t="s">
+        <v>594</v>
+      </c>
+      <c r="L81" t="s">
+        <v>595</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>596</v>
+      </c>
+      <c r="O81" t="s">
+        <v>80</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>582</v>
+      </c>
+      <c r="X81" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>598</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>599</v>
+      </c>
+      <c r="J82" t="s">
+        <v>600</v>
+      </c>
+      <c r="K82" t="s">
+        <v>601</v>
+      </c>
+      <c r="L82" t="s">
+        <v>602</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>604</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>605</v>
+      </c>
+      <c r="J83" t="s">
+        <v>606</v>
+      </c>
+      <c r="K83" t="s">
+        <v>607</v>
+      </c>
+      <c r="L83" t="s">
+        <v>608</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>609</v>
+      </c>
+      <c r="O83" t="s">
+        <v>80</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>611</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>612</v>
+      </c>
+      <c r="J84" t="s">
+        <v>613</v>
+      </c>
+      <c r="K84" t="s">
+        <v>614</v>
+      </c>
+      <c r="L84" t="s">
+        <v>615</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>616</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>617</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>618</v>
+      </c>
+      <c r="J85" t="s">
+        <v>619</v>
+      </c>
+      <c r="K85" t="s">
+        <v>620</v>
+      </c>
+      <c r="L85" t="s">
+        <v>621</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>622</v>
+      </c>
+      <c r="O85" t="s">
+        <v>80</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>623</v>
+      </c>
+      <c r="X85" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>626</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>627</v>
+      </c>
+      <c r="J86" t="s">
+        <v>628</v>
+      </c>
+      <c r="K86" t="s">
+        <v>629</v>
+      </c>
+      <c r="L86" t="s">
+        <v>630</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>631</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>623</v>
+      </c>
+      <c r="X86" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>633</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>634</v>
+      </c>
+      <c r="J87" t="s">
+        <v>635</v>
+      </c>
+      <c r="K87" t="s">
+        <v>636</v>
+      </c>
+      <c r="L87" t="s">
+        <v>637</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>631</v>
+      </c>
+      <c r="O87" t="s">
+        <v>80</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>623</v>
+      </c>
+      <c r="X87" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>639</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>640</v>
+      </c>
+      <c r="J88" t="s">
+        <v>641</v>
+      </c>
+      <c r="K88" t="s">
+        <v>642</v>
+      </c>
+      <c r="L88" t="s">
+        <v>643</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>631</v>
+      </c>
+      <c r="O88" t="s">
+        <v>71</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>623</v>
+      </c>
+      <c r="X88" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>645</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>646</v>
+      </c>
+      <c r="J89" t="s">
+        <v>647</v>
+      </c>
+      <c r="K89" t="s">
+        <v>648</v>
+      </c>
+      <c r="L89" t="s">
+        <v>649</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>650</v>
+      </c>
+      <c r="O89" t="s">
+        <v>80</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>623</v>
+      </c>
+      <c r="X89" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>652</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>653</v>
+      </c>
+      <c r="J90" t="s">
+        <v>654</v>
+      </c>
+      <c r="K90" t="s">
+        <v>655</v>
+      </c>
+      <c r="L90" t="s">
+        <v>656</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>650</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>623</v>
+      </c>
+      <c r="X90" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>658</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>659</v>
+      </c>
+      <c r="J91" t="s">
+        <v>660</v>
+      </c>
+      <c r="K91" t="s">
+        <v>661</v>
+      </c>
+      <c r="L91" t="s">
+        <v>662</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>663</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>664</v>
+      </c>
+      <c r="X91" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>667</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>668</v>
+      </c>
+      <c r="J92" t="s">
+        <v>669</v>
+      </c>
+      <c r="K92" t="s">
+        <v>670</v>
+      </c>
+      <c r="L92" t="s">
+        <v>671</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>663</v>
+      </c>
+      <c r="O92" t="s">
+        <v>71</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>664</v>
+      </c>
+      <c r="X92" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>673</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>674</v>
+      </c>
+      <c r="J93" t="s">
+        <v>675</v>
+      </c>
+      <c r="K93" t="s">
+        <v>676</v>
+      </c>
+      <c r="L93" t="s">
+        <v>677</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>663</v>
+      </c>
+      <c r="O93" t="s">
+        <v>71</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>664</v>
+      </c>
+      <c r="X93" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>679</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>680</v>
+      </c>
+      <c r="J94" t="s">
+        <v>681</v>
+      </c>
+      <c r="K94" t="s">
+        <v>682</v>
+      </c>
+      <c r="L94" t="s">
+        <v>683</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>684</v>
+      </c>
+      <c r="O94" t="s">
+        <v>80</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>664</v>
+      </c>
+      <c r="X94" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>686</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>687</v>
+      </c>
+      <c r="J95" t="s">
+        <v>688</v>
+      </c>
+      <c r="K95" t="s">
+        <v>689</v>
+      </c>
+      <c r="L95" t="s">
+        <v>690</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>691</v>
+      </c>
+      <c r="O95" t="s">
+        <v>114</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>692</v>
+      </c>
+      <c r="X95" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>695</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>696</v>
+      </c>
+      <c r="J96" t="s">
+        <v>697</v>
+      </c>
+      <c r="K96" t="s">
+        <v>698</v>
+      </c>
+      <c r="L96" t="s">
+        <v>699</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>700</v>
+      </c>
+      <c r="O96" t="s">
+        <v>71</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>701</v>
+      </c>
+      <c r="X96" t="s">
+        <v>702</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>704</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>705</v>
+      </c>
+      <c r="J97" t="s">
+        <v>706</v>
+      </c>
+      <c r="K97" t="s">
+        <v>707</v>
+      </c>
+      <c r="L97" t="s">
+        <v>708</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>709</v>
+      </c>
+      <c r="O97" t="s">
+        <v>71</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>710</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>711</v>
+      </c>
+      <c r="J98" t="s">
+        <v>712</v>
+      </c>
+      <c r="K98" t="s">
+        <v>713</v>
+      </c>
+      <c r="L98" t="s">
+        <v>714</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>709</v>
+      </c>
+      <c r="O98" t="s">
+        <v>114</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>715</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>716</v>
+      </c>
+      <c r="J99" t="s">
+        <v>717</v>
+      </c>
+      <c r="K99" t="s">
+        <v>718</v>
+      </c>
+      <c r="L99" t="s">
+        <v>719</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>720</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>721</v>
+      </c>
+      <c r="J100" t="s">
+        <v>722</v>
+      </c>
+      <c r="K100" t="s">
+        <v>723</v>
+      </c>
+      <c r="L100" t="s">
+        <v>724</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>725</v>
+      </c>
+      <c r="O100" t="s">
+        <v>71</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>726</v>
+      </c>
+      <c r="X100" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>729</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>730</v>
+      </c>
+      <c r="J101" t="s">
+        <v>731</v>
+      </c>
+      <c r="K101" t="s">
+        <v>732</v>
+      </c>
+      <c r="L101" t="s">
+        <v>733</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>725</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>726</v>
+      </c>
+      <c r="X101" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>735</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>736</v>
+      </c>
+      <c r="J102" t="s">
+        <v>737</v>
+      </c>
+      <c r="K102" t="s">
+        <v>738</v>
+      </c>
+      <c r="L102" t="s">
+        <v>739</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>740</v>
+      </c>
+      <c r="O102" t="s">
+        <v>71</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>726</v>
+      </c>
+      <c r="X102" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>742</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>743</v>
+      </c>
+      <c r="J103" t="s">
+        <v>744</v>
+      </c>
+      <c r="K103" t="s">
+        <v>745</v>
+      </c>
+      <c r="L103" t="s">
+        <v>746</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>747</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>748</v>
+      </c>
+      <c r="X103" t="s">
+        <v>749</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>751</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>752</v>
+      </c>
+      <c r="J104" t="s">
+        <v>753</v>
+      </c>
+      <c r="K104" t="s">
+        <v>754</v>
+      </c>
+      <c r="L104" t="s">
+        <v>755</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>756</v>
+      </c>
+      <c r="O104" t="s">
+        <v>71</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>757</v>
+      </c>
+      <c r="X104" t="s">
+        <v>758</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>39952</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>760</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>761</v>
+      </c>
+      <c r="J105" t="s">
+        <v>762</v>
+      </c>
+      <c r="K105" t="s">
+        <v>763</v>
+      </c>
+      <c r="L105" t="s">
+        <v>764</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>765</v>
+      </c>
+      <c r="X105" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>767</v>
       </c>
     </row>
   </sheetData>
